--- a/data/USFWS_bull_trout_SSA_data_OR.xlsx
+++ b/data/USFWS_bull_trout_SSA_data_OR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\USFWS Liason\Bull Trout\5-Year Review\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scheuerl/Documents/GitHub/bulltrout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B02788-84CD-EA4E-B49E-C0B07571C2D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="11760" yWindow="8640" windowWidth="23040" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oregon Data" sheetId="1" r:id="rId1"/>
@@ -616,13 +617,13 @@
     <t>Census redd surveys in Little Minam and Dobbin Creek.  Surveyed by consistent and expereinced surveyors.  3-4 surveys/year except twice in 2003 and 2004. Data exists in 2020 but only one survey in some reaches.</t>
   </si>
   <si>
-    <t>Local Pop</t>
+    <t>Popn/Stream</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -762,8 +763,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,6 +855,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -889,6 +907,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1064,29 +1099,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.83203125" style="14"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="9"/>
     <col min="9" max="9" width="22.6640625" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="10" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
@@ -1115,7 +1150,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1138,7 +1173,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1161,7 +1196,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1184,7 +1219,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1207,7 +1242,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1230,7 +1265,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1253,7 +1288,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1276,7 +1311,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1299,7 +1334,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -1325,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -1351,7 +1386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>1</v>
       </c>
@@ -1377,7 +1412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>1</v>
       </c>
@@ -1403,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -1429,7 +1464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -1455,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>1</v>
       </c>
@@ -1481,7 +1516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>1</v>
       </c>
@@ -1507,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>1</v>
       </c>
@@ -1533,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>1</v>
       </c>
@@ -1559,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>1</v>
       </c>
@@ -1585,7 +1620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>1</v>
       </c>
@@ -1611,7 +1646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>1</v>
       </c>
@@ -1637,7 +1672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>1</v>
       </c>
@@ -1663,7 +1698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>1</v>
       </c>
@@ -1689,7 +1724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>1</v>
       </c>
@@ -1715,7 +1750,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>1</v>
       </c>
@@ -1741,7 +1776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>1</v>
       </c>
@@ -1767,7 +1802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>1</v>
       </c>
@@ -1793,7 +1828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>1</v>
       </c>
@@ -1819,7 +1854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>1</v>
       </c>
@@ -1845,7 +1880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>1</v>
       </c>
@@ -1871,7 +1906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>1</v>
       </c>
@@ -1897,7 +1932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>1</v>
       </c>
@@ -1923,7 +1958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>1</v>
       </c>
@@ -1949,7 +1984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>1</v>
       </c>
@@ -1975,7 +2010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>1</v>
       </c>
@@ -2001,7 +2036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>2</v>
       </c>
@@ -2027,7 +2062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>2</v>
       </c>
@@ -2053,7 +2088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>2</v>
       </c>
@@ -2079,7 +2114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>2</v>
       </c>
@@ -2105,7 +2140,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>2</v>
       </c>
@@ -2131,7 +2166,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>2</v>
       </c>
@@ -2157,7 +2192,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <v>2</v>
       </c>
@@ -2183,7 +2218,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <v>2</v>
       </c>
@@ -2209,7 +2244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <v>2</v>
       </c>
@@ -2235,7 +2270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <v>2</v>
       </c>
@@ -2261,7 +2296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <v>2</v>
       </c>
@@ -2287,7 +2322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <v>2</v>
       </c>
@@ -2313,7 +2348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <v>2</v>
       </c>
@@ -2339,7 +2374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <v>2</v>
       </c>
@@ -2365,7 +2400,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <v>2</v>
       </c>
@@ -2391,7 +2426,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
         <v>2</v>
       </c>
@@ -2417,7 +2452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
         <v>2</v>
       </c>
@@ -2443,7 +2478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="14">
         <v>2</v>
       </c>
@@ -2469,7 +2504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
         <v>3</v>
       </c>
@@ -2496,7 +2531,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="14">
         <v>3</v>
       </c>
@@ -2523,7 +2558,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
         <v>3</v>
       </c>
@@ -2550,7 +2585,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="14">
         <v>3</v>
       </c>
@@ -2577,7 +2612,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
         <v>3</v>
       </c>
@@ -2604,7 +2639,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="14">
         <v>3</v>
       </c>
@@ -2631,7 +2666,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="14">
         <v>3</v>
       </c>
@@ -2658,7 +2693,7 @@
       </c>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="14">
         <v>3</v>
       </c>
@@ -2685,7 +2720,7 @@
       </c>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="14">
         <v>3</v>
       </c>
@@ -2712,7 +2747,7 @@
       </c>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="14">
         <v>3</v>
       </c>
@@ -2739,7 +2774,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="14">
         <v>3</v>
       </c>
@@ -2766,7 +2801,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="14">
         <v>3</v>
       </c>
@@ -2793,7 +2828,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="14">
         <v>3</v>
       </c>
@@ -2820,7 +2855,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="14">
         <v>3</v>
       </c>
@@ -2847,7 +2882,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="14">
         <v>3</v>
       </c>
@@ -2874,7 +2909,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="14">
         <v>3</v>
       </c>
@@ -2901,7 +2936,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="14">
         <v>3</v>
       </c>
@@ -2928,7 +2963,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="14">
         <v>3</v>
       </c>
@@ -2955,7 +2990,7 @@
       </c>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="14">
         <v>3</v>
       </c>
@@ -2982,7 +3017,7 @@
       </c>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="14">
         <v>3</v>
       </c>
@@ -3009,7 +3044,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="14">
         <v>3</v>
       </c>
@@ -3036,7 +3071,7 @@
       </c>
       <c r="I75" s="20"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="14">
         <v>3</v>
       </c>
@@ -3063,7 +3098,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="14">
         <v>4</v>
       </c>
@@ -3089,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="14">
         <v>4</v>
       </c>
@@ -3115,7 +3150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="14">
         <v>4</v>
       </c>
@@ -3141,7 +3176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="14">
         <v>4</v>
       </c>
@@ -3167,7 +3202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="14">
         <v>4</v>
       </c>
@@ -3193,7 +3228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="14">
         <v>4</v>
       </c>
@@ -3219,7 +3254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="14">
         <v>4</v>
       </c>
@@ -3245,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="14">
         <v>4</v>
       </c>
@@ -3271,7 +3306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="14">
         <v>4</v>
       </c>
@@ -3297,7 +3332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="14">
         <v>4</v>
       </c>
@@ -3323,7 +3358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="14">
         <v>4</v>
       </c>
@@ -3349,7 +3384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="14">
         <v>4</v>
       </c>
@@ -3375,7 +3410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="14">
         <v>4</v>
       </c>
@@ -3401,7 +3436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="14">
         <v>4</v>
       </c>
@@ -3427,7 +3462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="14">
         <v>4</v>
       </c>
@@ -3453,7 +3488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="14">
         <v>4</v>
       </c>
@@ -3479,7 +3514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="s">
         <v>37</v>
       </c>
@@ -3505,7 +3540,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="14">
         <v>5</v>
       </c>
@@ -3534,7 +3569,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="14">
         <v>5</v>
       </c>
@@ -3560,7 +3595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="14">
         <v>5</v>
       </c>
@@ -3586,7 +3621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="14">
         <v>5</v>
       </c>
@@ -3612,7 +3647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="14">
         <v>5</v>
       </c>
@@ -3638,7 +3673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="14">
         <v>5</v>
       </c>
@@ -3664,7 +3699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="14">
         <v>5</v>
       </c>
@@ -3690,7 +3725,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="14">
         <v>5</v>
       </c>
@@ -3716,7 +3751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="14">
         <v>5</v>
       </c>
@@ -3742,7 +3777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="14">
         <v>5</v>
       </c>
@@ -3768,7 +3803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="14">
         <v>5</v>
       </c>
@@ -3794,7 +3829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="14">
         <v>5</v>
       </c>
@@ -3820,7 +3855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="14">
         <v>5</v>
       </c>
@@ -3846,7 +3881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="14">
         <v>5</v>
       </c>
@@ -3872,7 +3907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="14">
         <v>5</v>
       </c>
@@ -3898,7 +3933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B109" s="2" t="s">
         <v>37</v>
       </c>
@@ -3924,7 +3959,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B110" s="2" t="s">
         <v>37</v>
       </c>
@@ -3950,7 +3985,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B111" s="2" t="s">
         <v>37</v>
       </c>
@@ -3973,7 +4008,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="14">
         <v>6</v>
       </c>
@@ -3999,7 +4034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="14">
         <v>6</v>
       </c>
@@ -4025,7 +4060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="14">
         <v>6</v>
       </c>
@@ -4051,7 +4086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="14">
         <v>6</v>
       </c>
@@ -4077,7 +4112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="14">
         <v>6</v>
       </c>
@@ -4103,7 +4138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="14">
         <v>6</v>
       </c>
@@ -4129,7 +4164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="14">
         <v>6</v>
       </c>
@@ -4155,7 +4190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="14">
         <v>6</v>
       </c>
@@ -4181,7 +4216,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="14">
         <v>6</v>
       </c>
@@ -4207,7 +4242,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="14">
         <v>6</v>
       </c>
@@ -4233,7 +4268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="14">
         <v>6</v>
       </c>
@@ -4259,7 +4294,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="14">
         <v>6</v>
       </c>
@@ -4285,7 +4320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="14">
         <v>6</v>
       </c>
@@ -4311,7 +4346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="14">
         <v>6</v>
       </c>
@@ -4337,7 +4372,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="14">
         <v>6</v>
       </c>
@@ -4363,7 +4398,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="14">
         <v>6</v>
       </c>
@@ -4389,7 +4424,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="14">
         <v>6</v>
       </c>
@@ -4415,7 +4450,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="14">
         <v>6</v>
       </c>
@@ -4441,7 +4476,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="14">
         <v>6</v>
       </c>
@@ -4467,7 +4502,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="14">
         <v>6</v>
       </c>
@@ -4493,7 +4528,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="14">
         <v>6</v>
       </c>
@@ -4519,7 +4554,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="14">
         <v>6</v>
       </c>
@@ -4545,7 +4580,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="14">
         <v>6</v>
       </c>
@@ -4571,7 +4606,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" s="14">
         <v>6</v>
       </c>
@@ -4597,7 +4632,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="14">
         <v>6</v>
       </c>
@@ -4623,7 +4658,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="14">
         <v>6</v>
       </c>
@@ -4649,7 +4684,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="14">
         <v>6</v>
       </c>
@@ -4675,7 +4710,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="14">
         <v>6</v>
       </c>
@@ -4701,7 +4736,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="14">
         <v>6</v>
       </c>
@@ -4727,7 +4762,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="14">
         <v>6</v>
       </c>
@@ -4753,7 +4788,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="14">
         <v>6</v>
       </c>
@@ -4779,7 +4814,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="14">
         <v>6</v>
       </c>
@@ -4805,7 +4840,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="14">
         <v>6</v>
       </c>
@@ -4831,7 +4866,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" s="14">
         <v>6</v>
       </c>
@@ -4857,7 +4892,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" s="14">
         <v>6</v>
       </c>
@@ -4886,7 +4921,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" s="14">
         <v>7</v>
       </c>
@@ -4915,7 +4950,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" s="14">
         <v>7</v>
       </c>
@@ -4941,7 +4976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" s="14">
         <v>7</v>
       </c>
@@ -4967,7 +5002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" s="14">
         <v>7</v>
       </c>
@@ -4993,7 +5028,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151" s="14">
         <v>7</v>
       </c>
@@ -5019,7 +5054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" s="14">
         <v>7</v>
       </c>
@@ -5045,7 +5080,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" s="14">
         <v>7</v>
       </c>
@@ -5071,7 +5106,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" s="14">
         <v>7</v>
       </c>
@@ -5097,7 +5132,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155" s="14">
         <v>7</v>
       </c>
@@ -5123,7 +5158,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" s="14">
         <v>7</v>
       </c>
@@ -5149,7 +5184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157" s="14">
         <v>7</v>
       </c>
@@ -5175,7 +5210,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158" s="14">
         <v>7</v>
       </c>
@@ -5201,7 +5236,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" s="14">
         <v>7</v>
       </c>
@@ -5227,7 +5262,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" s="14">
         <v>7</v>
       </c>
@@ -5253,7 +5288,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" s="14">
         <v>7</v>
       </c>
@@ -5279,7 +5314,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162" s="14">
         <v>7</v>
       </c>
@@ -5305,7 +5340,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163" s="14">
         <v>7</v>
       </c>
@@ -5331,7 +5366,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" s="14">
         <v>7</v>
       </c>
@@ -5357,7 +5392,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165" s="14">
         <v>7</v>
       </c>
@@ -5383,7 +5418,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166" s="14">
         <v>7</v>
       </c>
@@ -5409,7 +5444,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167" s="14">
         <v>7</v>
       </c>
@@ -5435,7 +5470,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168" s="14">
         <v>7</v>
       </c>
@@ -5461,7 +5496,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169" s="14">
         <v>7</v>
       </c>
@@ -5487,7 +5522,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170" s="14">
         <v>7</v>
       </c>
@@ -5513,7 +5548,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171" s="14">
         <v>7</v>
       </c>
@@ -5539,7 +5574,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172" s="14">
         <v>7</v>
       </c>
@@ -5565,7 +5600,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173" s="14">
         <v>7</v>
       </c>
@@ -5591,7 +5626,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174" s="14">
         <v>7</v>
       </c>
@@ -5617,7 +5652,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175" s="14">
         <v>7</v>
       </c>
@@ -5643,7 +5678,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A176" s="14">
         <v>7</v>
       </c>
@@ -5669,7 +5704,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A177" s="14">
         <v>7</v>
       </c>
@@ -5695,7 +5730,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178" s="14">
         <v>7</v>
       </c>
@@ -5721,7 +5756,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A179" s="14">
         <v>7</v>
       </c>
@@ -5747,7 +5782,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180" s="14">
         <v>7</v>
       </c>
@@ -5773,7 +5808,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A181" s="14">
         <v>7</v>
       </c>
@@ -5802,7 +5837,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A182" s="14">
         <v>8</v>
       </c>
@@ -5828,7 +5863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183" s="14">
         <v>8</v>
       </c>
@@ -5854,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A184" s="14">
         <v>8</v>
       </c>
@@ -5880,7 +5915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A185" s="14">
         <v>8</v>
       </c>
@@ -5906,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A186" s="14">
         <v>8</v>
       </c>
@@ -5932,7 +5967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187" s="14">
         <v>8</v>
       </c>
@@ -5958,7 +5993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A188" s="14">
         <v>8</v>
       </c>
@@ -5984,7 +6019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189" s="14">
         <v>8</v>
       </c>
@@ -6010,7 +6045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A190" s="14">
         <v>8</v>
       </c>
@@ -6036,7 +6071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191" s="14">
         <v>8</v>
       </c>
@@ -6062,7 +6097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192" s="14">
         <v>8</v>
       </c>
@@ -6088,7 +6123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A193" s="14">
         <v>8</v>
       </c>
@@ -6114,7 +6149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A194" s="14">
         <v>8</v>
       </c>
@@ -6143,7 +6178,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195" s="14">
         <v>8</v>
       </c>
@@ -6169,7 +6204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A196" s="14">
         <v>8</v>
       </c>
@@ -6195,7 +6230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A197" s="14">
         <v>8</v>
       </c>
@@ -6221,7 +6256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A198" s="14">
         <v>8</v>
       </c>
@@ -6247,7 +6282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A199" s="14">
         <v>8</v>
       </c>
@@ -6273,7 +6308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200" s="14">
         <v>8</v>
       </c>
@@ -6299,7 +6334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A201" s="14">
         <v>8</v>
       </c>
@@ -6325,7 +6360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A202" s="14">
         <v>8</v>
       </c>
@@ -6351,7 +6386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A203" s="14">
         <v>8</v>
       </c>
@@ -6377,7 +6412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A204" s="14">
         <v>8</v>
       </c>
@@ -6403,7 +6438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A205" s="14">
         <v>8</v>
       </c>
@@ -6429,7 +6464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A206" s="14">
         <v>8</v>
       </c>
@@ -6455,7 +6490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A207" s="14">
         <v>8</v>
       </c>
@@ -6481,7 +6516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A208" s="14">
         <v>8</v>
       </c>
@@ -6507,7 +6542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A209" s="14">
         <v>9</v>
       </c>
@@ -6533,7 +6568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A210" s="14">
         <v>9</v>
       </c>
@@ -6559,7 +6594,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211" s="14">
         <v>9</v>
       </c>
@@ -6585,7 +6620,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A212" s="14">
         <v>9</v>
       </c>
@@ -6611,7 +6646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213" s="14">
         <v>9</v>
       </c>
@@ -6637,7 +6672,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A214" s="14">
         <v>9</v>
       </c>
@@ -6663,7 +6698,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215" s="14">
         <v>9</v>
       </c>
@@ -6689,7 +6724,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A216" s="14">
         <v>9</v>
       </c>
@@ -6715,7 +6750,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A217" s="14">
         <v>9</v>
       </c>
@@ -6741,7 +6776,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A218" s="14">
         <v>9</v>
       </c>
@@ -6767,7 +6802,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A219" s="14">
         <v>9</v>
       </c>
@@ -6793,7 +6828,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A220" s="14">
         <v>9</v>
       </c>
@@ -6819,7 +6854,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A221" s="14">
         <v>9</v>
       </c>
@@ -6845,7 +6880,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A222" s="14">
         <v>9</v>
       </c>
@@ -6871,7 +6906,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A223" s="14">
         <v>9</v>
       </c>
@@ -6897,7 +6932,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A224" s="14">
         <v>9</v>
       </c>
@@ -6923,7 +6958,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A225" s="14">
         <v>9</v>
       </c>
@@ -6949,7 +6984,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A226" s="14">
         <v>9</v>
       </c>
@@ -6978,7 +7013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A227" s="14">
         <v>9</v>
       </c>
@@ -7004,7 +7039,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A228" s="14">
         <v>9</v>
       </c>
@@ -7033,7 +7068,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A229" s="14">
         <v>9</v>
       </c>
@@ -7062,7 +7097,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A230" s="14">
         <v>9</v>
       </c>
@@ -7091,7 +7126,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B231" s="2" t="s">
         <v>32</v>
       </c>
@@ -7114,7 +7149,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B232" s="2" t="s">
         <v>32</v>
       </c>
@@ -7137,7 +7172,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B233" s="2" t="s">
         <v>32</v>
       </c>
@@ -7160,7 +7195,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B234" s="2" t="s">
         <v>32</v>
       </c>
@@ -7183,7 +7218,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B235" s="2" t="s">
         <v>32</v>
       </c>
@@ -7206,7 +7241,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B236" s="2" t="s">
         <v>32</v>
       </c>
@@ -7229,7 +7264,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B237" s="2" t="s">
         <v>32</v>
       </c>
@@ -7252,7 +7287,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B238" s="2" t="s">
         <v>32</v>
       </c>
@@ -7275,7 +7310,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B239" s="2" t="s">
         <v>32</v>
       </c>
@@ -7298,7 +7333,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B240" s="2" t="s">
         <v>32</v>
       </c>
@@ -7321,7 +7356,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B241" s="2" t="s">
         <v>32</v>
       </c>
@@ -7344,7 +7379,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B242" s="2" t="s">
         <v>32</v>
       </c>
@@ -7367,7 +7402,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A243" s="14">
         <v>10</v>
       </c>
@@ -7393,7 +7428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A244" s="14">
         <v>10</v>
       </c>
@@ -7419,7 +7454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A245" s="14">
         <v>10</v>
       </c>
@@ -7445,7 +7480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A246" s="14">
         <v>10</v>
       </c>
@@ -7471,7 +7506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A247" s="14">
         <v>10</v>
       </c>
@@ -7497,7 +7532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A248" s="14">
         <v>10</v>
       </c>
@@ -7523,7 +7558,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A249" s="14">
         <v>10</v>
       </c>
@@ -7549,7 +7584,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A250" s="14">
         <v>10</v>
       </c>
@@ -7575,7 +7610,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A251" s="14">
         <v>10</v>
       </c>
@@ -7601,7 +7636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A252" s="14">
         <v>10</v>
       </c>
@@ -7627,7 +7662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A253" s="14">
         <v>10</v>
       </c>
@@ -7653,7 +7688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A254" s="14">
         <v>10</v>
       </c>
@@ -7679,7 +7714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A255" s="14">
         <v>10</v>
       </c>
@@ -7705,7 +7740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A256" s="14">
         <v>10</v>
       </c>
@@ -7731,7 +7766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257" s="14">
         <v>10</v>
       </c>
@@ -7757,7 +7792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258" s="14">
         <v>10</v>
       </c>
@@ -7783,7 +7818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259" s="14">
         <v>10</v>
       </c>
@@ -7809,7 +7844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" s="14">
         <v>10</v>
       </c>
@@ -7835,7 +7870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261" s="14">
         <v>10</v>
       </c>
@@ -7861,7 +7896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" s="14">
         <v>10</v>
       </c>
@@ -7887,7 +7922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" s="14">
         <v>10</v>
       </c>
@@ -7913,7 +7948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" s="14">
         <v>10</v>
       </c>
@@ -7939,7 +7974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265" s="14">
         <v>10</v>
       </c>
@@ -7965,7 +8000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A266" s="14">
         <v>10</v>
       </c>
@@ -7991,7 +8026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267" s="14">
         <v>10</v>
       </c>
@@ -8017,7 +8052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268" s="14">
         <v>10</v>
       </c>
@@ -8043,7 +8078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A269" s="14">
         <v>10</v>
       </c>
@@ -8069,7 +8104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A270" s="14">
         <v>11</v>
       </c>
@@ -8095,7 +8130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271" s="14">
         <v>11</v>
       </c>
@@ -8121,7 +8156,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A272" s="14">
         <v>11</v>
       </c>
@@ -8147,7 +8182,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A273" s="14">
         <v>11</v>
       </c>
@@ -8173,7 +8208,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274" s="14">
         <v>11</v>
       </c>
@@ -8199,7 +8234,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275" s="14">
         <v>11</v>
       </c>
@@ -8225,7 +8260,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276" s="14">
         <v>11</v>
       </c>
@@ -8251,7 +8286,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" s="14">
         <v>11</v>
       </c>
@@ -8277,7 +8312,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278" s="14">
         <v>11</v>
       </c>
@@ -8303,7 +8338,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279" s="14">
         <v>11</v>
       </c>
@@ -8329,7 +8364,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280" s="14">
         <v>11</v>
       </c>
@@ -8355,7 +8390,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A281" s="14">
         <v>11</v>
       </c>
@@ -8381,7 +8416,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A282" s="14">
         <v>11</v>
       </c>
@@ -8407,7 +8442,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A283" s="14">
         <v>11</v>
       </c>
@@ -8433,7 +8468,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A284" s="14">
         <v>11</v>
       </c>
@@ -8459,7 +8494,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A285" s="14">
         <v>11</v>
       </c>
@@ -8485,7 +8520,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A286" s="14">
         <v>11</v>
       </c>
@@ -8511,7 +8546,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A287" s="14">
         <v>11</v>
       </c>
@@ -8537,7 +8572,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A288" s="14">
         <v>11</v>
       </c>
@@ -8563,7 +8598,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A289" s="14">
         <v>11</v>
       </c>
@@ -8589,7 +8624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A290" s="14">
         <v>11</v>
       </c>
@@ -8615,7 +8650,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A291" s="14">
         <v>11</v>
       </c>
@@ -8641,7 +8676,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A292" s="14">
         <v>11</v>
       </c>
@@ -8670,7 +8705,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A293" s="14">
         <v>11</v>
       </c>
@@ -8696,7 +8731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A294" s="14">
         <v>11</v>
       </c>
@@ -8725,7 +8760,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A295" s="14">
         <v>11</v>
       </c>
@@ -8751,7 +8786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A296" s="14">
         <v>12</v>
       </c>
@@ -8780,7 +8815,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A297" s="14">
         <v>12</v>
       </c>
@@ -8806,7 +8841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A298" s="14">
         <v>12</v>
       </c>
@@ -8832,7 +8867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A299" s="14">
         <v>12</v>
       </c>
@@ -8858,7 +8893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A300" s="14">
         <v>12</v>
       </c>
@@ -8884,7 +8919,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A301" s="14">
         <v>12</v>
       </c>
@@ -8910,7 +8945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A302" s="14">
         <v>12</v>
       </c>
@@ -8936,7 +8971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A303" s="14">
         <v>12</v>
       </c>
@@ -8962,7 +8997,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A304" s="14">
         <v>12</v>
       </c>
@@ -8988,7 +9023,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A305" s="14">
         <v>12</v>
       </c>
@@ -9014,7 +9049,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A306" s="14">
         <v>12</v>
       </c>
@@ -9040,7 +9075,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A307" s="14">
         <v>12</v>
       </c>
@@ -9066,7 +9101,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A308" s="14">
         <v>12</v>
       </c>
@@ -9092,7 +9127,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A309" s="14">
         <v>12</v>
       </c>
@@ -9118,7 +9153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A310" s="14">
         <v>12</v>
       </c>
@@ -9144,7 +9179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A311" s="14">
         <v>12</v>
       </c>
@@ -9170,7 +9205,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A312" s="14">
         <v>12</v>
       </c>
@@ -9196,7 +9231,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A313" s="14">
         <v>12</v>
       </c>
@@ -9222,7 +9257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A314" s="14">
         <v>12</v>
       </c>
@@ -9248,7 +9283,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A315" s="14">
         <v>13</v>
       </c>
@@ -9274,7 +9309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A316" s="14">
         <v>13</v>
       </c>
@@ -9300,7 +9335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A317" s="14">
         <v>13</v>
       </c>
@@ -9326,7 +9361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A318" s="14">
         <v>13</v>
       </c>
@@ -9352,7 +9387,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A319" s="14">
         <v>13</v>
       </c>
@@ -9378,7 +9413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A320" s="14">
         <v>13</v>
       </c>
@@ -9404,7 +9439,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A321" s="14">
         <v>13</v>
       </c>
@@ -9430,7 +9465,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A322" s="14">
         <v>13</v>
       </c>
@@ -9456,7 +9491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A323" s="14">
         <v>13</v>
       </c>
@@ -9482,7 +9517,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A324" s="14">
         <v>13</v>
       </c>
@@ -9508,7 +9543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A325" s="14">
         <v>13</v>
       </c>
@@ -9534,7 +9569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A326" s="14">
         <v>13</v>
       </c>
@@ -9560,7 +9595,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A327" s="14">
         <v>13</v>
       </c>
@@ -9586,7 +9621,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A328" s="14">
         <v>13</v>
       </c>
@@ -9612,7 +9647,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A329" s="14">
         <v>13</v>
       </c>
@@ -9638,7 +9673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A330" s="14">
         <v>13</v>
       </c>
@@ -9664,7 +9699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A331" s="14">
         <v>13</v>
       </c>
@@ -9690,7 +9725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A332" s="14">
         <v>13</v>
       </c>
@@ -9716,7 +9751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A333" s="14">
         <v>13</v>
       </c>
@@ -9742,7 +9777,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A334" s="14">
         <v>13</v>
       </c>
@@ -9768,7 +9803,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A335" s="14">
         <v>13</v>
       </c>
@@ -9794,7 +9829,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A336" s="14">
         <v>13</v>
       </c>
@@ -9820,7 +9855,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A337" s="14">
         <v>13</v>
       </c>
@@ -9846,7 +9881,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A338" s="14">
         <v>13</v>
       </c>
@@ -9872,7 +9907,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A339" s="14">
         <v>13</v>
       </c>
@@ -9898,7 +9933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A340" s="14">
         <v>13</v>
       </c>
@@ -9924,7 +9959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A341" s="14">
         <v>13</v>
       </c>
@@ -9950,7 +9985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A342" s="14">
         <v>13</v>
       </c>
@@ -9976,7 +10011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B343" s="2" t="s">
         <v>32</v>
       </c>
@@ -9991,7 +10026,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B344" s="2" t="s">
         <v>32</v>
       </c>
@@ -10014,7 +10049,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B345" s="2" t="s">
         <v>32</v>
       </c>
@@ -10037,7 +10072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B346" s="2" t="s">
         <v>32</v>
       </c>
@@ -10060,7 +10095,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B347" s="2" t="s">
         <v>32</v>
       </c>
@@ -10083,7 +10118,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A348" s="14">
         <v>14</v>
       </c>
@@ -10109,7 +10144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A349" s="14">
         <v>14</v>
       </c>
@@ -10135,7 +10170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A350" s="14">
         <v>14</v>
       </c>
@@ -10161,7 +10196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A351" s="14">
         <v>14</v>
       </c>
@@ -10187,7 +10222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A352" s="14">
         <v>14</v>
       </c>
@@ -10216,7 +10251,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A353" s="14">
         <v>14</v>
       </c>
@@ -10242,7 +10277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A354" s="14">
         <v>14</v>
       </c>
@@ -10268,7 +10303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A355" s="14">
         <v>14</v>
       </c>
@@ -10294,7 +10329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A356" s="14">
         <v>14</v>
       </c>
@@ -10320,7 +10355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A357" s="14">
         <v>14</v>
       </c>
@@ -10349,7 +10384,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A358" s="14">
         <v>14</v>
       </c>
@@ -10375,7 +10410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A359" s="14">
         <v>14</v>
       </c>
@@ -10404,7 +10439,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A360" s="14">
         <v>14</v>
       </c>
@@ -10430,7 +10465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A361" s="14">
         <v>14</v>
       </c>
@@ -10456,7 +10491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A362" s="14">
         <v>14</v>
       </c>
@@ -10482,7 +10517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A363" s="14">
         <v>14</v>
       </c>
@@ -10508,7 +10543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A364" s="14">
         <v>14</v>
       </c>
@@ -10534,7 +10569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A365" s="14">
         <v>14</v>
       </c>
@@ -10560,7 +10595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A366" s="14">
         <v>14</v>
       </c>
@@ -10589,7 +10624,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A367" s="14">
         <v>14</v>
       </c>
@@ -10618,7 +10653,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A368" s="14">
         <v>14</v>
       </c>
@@ -10647,7 +10682,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A369" s="14">
         <v>14</v>
       </c>
@@ -10676,7 +10711,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A370" s="14">
         <v>14</v>
       </c>
@@ -10702,7 +10737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A371" s="14">
         <v>15</v>
       </c>
@@ -10731,7 +10766,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A372" s="14">
         <v>15</v>
       </c>
@@ -10757,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A373" s="14">
         <v>15</v>
       </c>
@@ -10783,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A374" s="14">
         <v>15</v>
       </c>
@@ -10809,7 +10844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A375" s="14">
         <v>15</v>
       </c>
@@ -10835,7 +10870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A376" s="14">
         <v>15</v>
       </c>
@@ -10861,7 +10896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A377" s="14">
         <v>15</v>
       </c>
@@ -10887,7 +10922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A378" s="14">
         <v>15</v>
       </c>
@@ -10913,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A379" s="14">
         <v>15</v>
       </c>
@@ -10939,7 +10974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A380" s="14">
         <v>15</v>
       </c>
@@ -10965,7 +11000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A381" s="14">
         <v>15</v>
       </c>
@@ -10991,7 +11026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A382" s="14">
         <v>15</v>
       </c>
@@ -11017,7 +11052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A383" s="14">
         <v>15</v>
       </c>
@@ -11043,7 +11078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A384" s="14">
         <v>15</v>
       </c>
@@ -11069,7 +11104,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A385" s="14">
         <v>15</v>
       </c>
@@ -11095,7 +11130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A386" s="14">
         <v>15</v>
       </c>
@@ -11121,7 +11156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A387" s="14">
         <v>15</v>
       </c>
@@ -11147,7 +11182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A388" s="14">
         <v>15</v>
       </c>
@@ -11173,7 +11208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A389" s="14">
         <v>15</v>
       </c>
@@ -11199,7 +11234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A390" s="14">
         <v>15</v>
       </c>
@@ -11225,7 +11260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A391" s="14">
         <v>15</v>
       </c>
@@ -11251,7 +11286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A392" s="14">
         <v>15</v>
       </c>
@@ -11277,7 +11312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B393" s="2" t="s">
         <v>32</v>
       </c>
@@ -11300,7 +11335,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B394" s="2" t="s">
         <v>32</v>
       </c>
@@ -11323,7 +11358,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B395" s="2" t="s">
         <v>32</v>
       </c>
@@ -11346,7 +11381,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A396" s="14">
         <v>16</v>
       </c>
@@ -11375,7 +11410,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A397" s="14">
         <v>16</v>
       </c>
@@ -11401,7 +11436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A398" s="14">
         <v>16</v>
       </c>
@@ -11427,7 +11462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A399" s="14">
         <v>16</v>
       </c>
@@ -11453,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A400" s="14">
         <v>16</v>
       </c>
@@ -11479,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A401" s="14">
         <v>16</v>
       </c>
@@ -11508,7 +11543,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A402" s="14">
         <v>16</v>
       </c>
@@ -11537,7 +11572,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A403" s="14">
         <v>16</v>
       </c>
@@ -11563,7 +11598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A404" s="14">
         <v>16</v>
       </c>
@@ -11589,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A405" s="14">
         <v>17</v>
       </c>
@@ -11615,7 +11650,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A406" s="14">
         <v>17</v>
       </c>
@@ -11641,7 +11676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A407" s="14">
         <v>17</v>
       </c>
@@ -11667,7 +11702,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A408" s="14">
         <v>17</v>
       </c>
@@ -11693,7 +11728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A409" s="14">
         <v>17</v>
       </c>
@@ -11719,7 +11754,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A410" s="14">
         <v>17</v>
       </c>
@@ -11745,7 +11780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A411" s="14">
         <v>17</v>
       </c>
@@ -11771,7 +11806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A412" s="14">
         <v>17</v>
       </c>
@@ -11797,7 +11832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A413" s="14">
         <v>17</v>
       </c>
@@ -11823,7 +11858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A414" s="14">
         <v>17</v>
       </c>
@@ -11849,7 +11884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A415" s="14">
         <v>17</v>
       </c>
@@ -11875,7 +11910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A416" s="14">
         <v>17</v>
       </c>
@@ -11901,7 +11936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A417" s="14">
         <v>17</v>
       </c>
@@ -11927,7 +11962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A418" s="14">
         <v>17</v>
       </c>
@@ -11953,7 +11988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A419" s="14">
         <v>17</v>
       </c>
@@ -11979,7 +12014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A420" s="14">
         <v>17</v>
       </c>
@@ -12005,7 +12040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A421" s="14">
         <v>17</v>
       </c>
@@ -12031,7 +12066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A422" s="14">
         <v>17</v>
       </c>
@@ -12057,7 +12092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A423" s="14">
         <v>17</v>
       </c>
@@ -12083,7 +12118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A424" s="14">
         <v>17</v>
       </c>
@@ -12109,7 +12144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A425" s="14">
         <v>17</v>
       </c>
@@ -12135,7 +12170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A426" s="14">
         <v>18</v>
       </c>
@@ -12161,7 +12196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A427" s="14">
         <v>18</v>
       </c>
@@ -12187,7 +12222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A428" s="14">
         <v>18</v>
       </c>
@@ -12213,7 +12248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A429" s="14">
         <v>18</v>
       </c>
@@ -12239,7 +12274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A430" s="14">
         <v>18</v>
       </c>
@@ -12265,7 +12300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A431" s="14">
         <v>18</v>
       </c>
@@ -12291,7 +12326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A432" s="14">
         <v>18</v>
       </c>
@@ -12317,7 +12352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A433" s="14">
         <v>18</v>
       </c>
@@ -12343,7 +12378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A434" s="14">
         <v>18</v>
       </c>
@@ -12369,7 +12404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A435" s="14">
         <v>18</v>
       </c>
@@ -12395,7 +12430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A436" s="14">
         <v>18</v>
       </c>
@@ -12421,7 +12456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A437" s="14">
         <v>18</v>
       </c>
@@ -12447,7 +12482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A438" s="14">
         <v>18</v>
       </c>
@@ -12473,7 +12508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A439" s="14">
         <v>18</v>
       </c>
@@ -12499,7 +12534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A440" s="14">
         <v>18</v>
       </c>
@@ -12525,7 +12560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A441" s="14">
         <v>18</v>
       </c>
@@ -12551,7 +12586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A442" s="14">
         <v>18</v>
       </c>
@@ -12577,7 +12612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A443" s="14">
         <v>18</v>
       </c>
@@ -12603,7 +12638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A444" s="14">
         <v>18</v>
       </c>
@@ -12629,7 +12664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A445" s="14">
         <v>18</v>
       </c>
@@ -12655,7 +12690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A446" s="14">
         <v>18</v>
       </c>
@@ -12681,7 +12716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B447" s="2" t="s">
         <v>32</v>
       </c>
@@ -12704,7 +12739,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A448" s="14">
         <v>19</v>
       </c>
@@ -12730,7 +12765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A449" s="14">
         <v>19</v>
       </c>
@@ -12756,7 +12791,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A450" s="14">
         <v>19</v>
       </c>
@@ -12782,7 +12817,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A451" s="14">
         <v>19</v>
       </c>
@@ -12808,7 +12843,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A452" s="14">
         <v>19</v>
       </c>
@@ -12834,7 +12869,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A453" s="14">
         <v>19</v>
       </c>
@@ -12860,7 +12895,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A454" s="14">
         <v>19</v>
       </c>
@@ -12886,7 +12921,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A455" s="14">
         <v>19</v>
       </c>
@@ -12912,7 +12947,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A456" s="14">
         <v>20</v>
       </c>
@@ -12941,7 +12976,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A457" s="14">
         <v>20</v>
       </c>
@@ -12967,7 +13002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A458" s="14">
         <v>20</v>
       </c>
@@ -12993,7 +13028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A459" s="14">
         <v>20</v>
       </c>
@@ -13019,7 +13054,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A460" s="14">
         <v>20</v>
       </c>
@@ -13045,7 +13080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A461" s="14">
         <v>20</v>
       </c>
@@ -13071,7 +13106,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A462" s="14">
         <v>20</v>
       </c>
@@ -13097,7 +13132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A463" s="14">
         <v>20</v>
       </c>
@@ -13123,7 +13158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A464" s="14">
         <v>20</v>
       </c>
@@ -13149,7 +13184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A465" s="14">
         <v>20</v>
       </c>
@@ -13175,7 +13210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A466" s="14">
         <v>20</v>
       </c>
@@ -13201,7 +13236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A467" s="14">
         <v>20</v>
       </c>
@@ -13227,7 +13262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A468" s="14">
         <v>20</v>
       </c>
@@ -13253,7 +13288,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A469" s="14">
         <v>20</v>
       </c>
@@ -13279,7 +13314,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A470" s="14">
         <v>20</v>
       </c>
@@ -13305,7 +13340,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A471" s="14">
         <v>20</v>
       </c>
@@ -13331,7 +13366,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A472" s="14">
         <v>20</v>
       </c>
@@ -13357,7 +13392,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A473" s="14">
         <v>20</v>
       </c>
@@ -13383,7 +13418,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A474" s="14">
         <v>20</v>
       </c>
@@ -13409,7 +13444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A475" s="14">
         <v>20</v>
       </c>
@@ -13435,7 +13470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A476" s="14">
         <v>20</v>
       </c>
@@ -13461,7 +13496,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A477" s="14">
         <v>20</v>
       </c>
@@ -13487,7 +13522,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B478" s="2" t="s">
         <v>32</v>
       </c>
@@ -13501,7 +13536,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B479" s="2" t="s">
         <v>32</v>
       </c>
@@ -13524,7 +13559,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B480" s="2" t="s">
         <v>32</v>
       </c>
@@ -13538,7 +13573,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A481" s="14">
         <v>21</v>
       </c>
@@ -13564,7 +13599,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A482" s="14">
         <v>21</v>
       </c>
@@ -13590,7 +13625,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A483" s="14">
         <v>21</v>
       </c>
@@ -13616,7 +13651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A484" s="14">
         <v>21</v>
       </c>
@@ -13642,7 +13677,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A485" s="14">
         <v>21</v>
       </c>
@@ -13668,7 +13703,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A486" s="14">
         <v>21</v>
       </c>
@@ -13694,7 +13729,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A487" s="14">
         <v>21</v>
       </c>
@@ -13720,7 +13755,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A488" s="14">
         <v>21</v>
       </c>
@@ -13746,7 +13781,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A489" s="14">
         <v>21</v>
       </c>
@@ -13772,7 +13807,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A490" s="14">
         <v>21</v>
       </c>
@@ -13798,7 +13833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A491" s="14">
         <v>21</v>
       </c>
@@ -13824,7 +13859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A492" s="14">
         <v>21</v>
       </c>
@@ -13850,7 +13885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A493" s="14">
         <v>21</v>
       </c>
@@ -13876,7 +13911,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A494" s="14">
         <v>21</v>
       </c>
@@ -13905,7 +13940,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A495" s="14">
         <v>21</v>
       </c>
@@ -13931,7 +13966,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A496" s="14">
         <v>21</v>
       </c>
@@ -13957,7 +13992,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A497" s="14">
         <v>21</v>
       </c>
@@ -13983,7 +14018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A498" s="14">
         <v>21</v>
       </c>
@@ -14009,7 +14044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A499" s="14">
         <v>21</v>
       </c>
@@ -14035,7 +14070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A500" s="14">
         <v>22</v>
       </c>
@@ -14061,7 +14096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A501" s="14">
         <v>22</v>
       </c>
@@ -14087,7 +14122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A502" s="14">
         <v>22</v>
       </c>
@@ -14113,7 +14148,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A503" s="14">
         <v>22</v>
       </c>
@@ -14139,7 +14174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A504" s="14">
         <v>22</v>
       </c>
@@ -14168,7 +14203,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A505" s="14">
         <v>22</v>
       </c>
@@ -14194,7 +14229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A506" s="14">
         <v>22</v>
       </c>
@@ -14220,7 +14255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A507" s="14">
         <v>22</v>
       </c>
@@ -14246,7 +14281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A508" s="14">
         <v>22</v>
       </c>
@@ -14272,7 +14307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A509" s="14">
         <v>22</v>
       </c>
@@ -14298,7 +14333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A510" s="14">
         <v>22</v>
       </c>
@@ -14324,7 +14359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A511" s="14">
         <v>22</v>
       </c>
@@ -14350,7 +14385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A512" s="14">
         <v>22</v>
       </c>
@@ -14379,7 +14414,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A513" s="14">
         <v>22</v>
       </c>
@@ -14405,7 +14440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A514" s="14">
         <v>22</v>
       </c>
@@ -14431,7 +14466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A515" s="14">
         <v>22</v>
       </c>
@@ -14457,7 +14492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A516" s="14">
         <v>22</v>
       </c>
@@ -14483,7 +14518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A517" s="14">
         <v>22</v>
       </c>
@@ -14509,7 +14544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A518" s="14">
         <v>23</v>
       </c>
@@ -14535,7 +14570,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A519" s="14">
         <v>23</v>
       </c>
@@ -14561,7 +14596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A520" s="14">
         <v>23</v>
       </c>
@@ -14587,7 +14622,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A521" s="14">
         <v>23</v>
       </c>
@@ -14613,7 +14648,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A522" s="14">
         <v>23</v>
       </c>
@@ -14639,7 +14674,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A523" s="14">
         <v>23</v>
       </c>
@@ -14665,7 +14700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A524" s="14">
         <v>23</v>
       </c>
@@ -14691,7 +14726,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A525" s="14">
         <v>23</v>
       </c>
@@ -14717,7 +14752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A526" s="14">
         <v>23</v>
       </c>
@@ -14743,7 +14778,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A527" s="14">
         <v>23</v>
       </c>
@@ -14769,7 +14804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A528" s="14">
         <v>23</v>
       </c>
@@ -14795,7 +14830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A529" s="14">
         <v>23</v>
       </c>
@@ -14821,7 +14856,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A530" s="14">
         <v>23</v>
       </c>
@@ -14850,7 +14885,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A531" s="14">
         <v>23</v>
       </c>
@@ -14876,7 +14911,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A532" s="14">
         <v>23</v>
       </c>
@@ -14902,7 +14937,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A533" s="14">
         <v>23</v>
       </c>
@@ -14928,7 +14963,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A534" s="14">
         <v>23</v>
       </c>
@@ -14954,7 +14989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A535" s="14">
         <v>23</v>
       </c>
@@ -14980,7 +15015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B536" s="2" t="s">
         <v>32</v>
       </c>
@@ -15003,7 +15038,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A537" s="14">
         <v>24</v>
       </c>
@@ -15032,7 +15067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A538" s="14">
         <v>24</v>
       </c>
@@ -15061,7 +15096,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A539" s="14">
         <v>24</v>
       </c>
@@ -15087,7 +15122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A540" s="14">
         <v>24</v>
       </c>
@@ -15113,7 +15148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A541" s="14">
         <v>24</v>
       </c>
@@ -15142,7 +15177,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A542" s="14">
         <v>24</v>
       </c>
@@ -15168,7 +15203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A543" s="14">
         <v>24</v>
       </c>
@@ -15194,7 +15229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A544" s="14">
         <v>24</v>
       </c>
@@ -15220,7 +15255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A545" s="14">
         <v>24</v>
       </c>
@@ -15246,7 +15281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A546" s="14">
         <v>24</v>
       </c>
@@ -15272,7 +15307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A547" s="14">
         <v>24</v>
       </c>
@@ -15298,7 +15333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A548" s="14">
         <v>24</v>
       </c>
@@ -15324,7 +15359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A549" s="14">
         <v>24</v>
       </c>
@@ -15350,7 +15385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A550" s="14">
         <v>24</v>
       </c>
@@ -15376,7 +15411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A551" s="14">
         <v>24</v>
       </c>
@@ -15402,7 +15437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A552" s="14">
         <v>24</v>
       </c>
@@ -15428,7 +15463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A553" s="14">
         <v>24</v>
       </c>
@@ -15454,7 +15489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A554" s="14">
         <v>24</v>
       </c>
@@ -15483,7 +15518,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A555" s="14">
         <v>24</v>
       </c>
@@ -15512,7 +15547,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A556" s="14">
         <v>24</v>
       </c>
@@ -15538,7 +15573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B557" s="2" t="s">
         <v>32</v>
       </c>
@@ -15558,7 +15593,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B558" s="2" t="s">
         <v>32</v>
       </c>
@@ -15578,7 +15613,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B559" s="2" t="s">
         <v>32</v>
       </c>
@@ -15598,7 +15633,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B560" s="2" t="s">
         <v>32</v>
       </c>
@@ -15618,7 +15653,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B561" s="2" t="s">
         <v>32</v>
       </c>
@@ -15638,7 +15673,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B562" s="2" t="s">
         <v>32</v>
       </c>
@@ -15658,7 +15693,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B563" s="2" t="s">
         <v>32</v>
       </c>
@@ -15678,7 +15713,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B564" s="2" t="s">
         <v>32</v>
       </c>
@@ -15698,7 +15733,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B565" s="2" t="s">
         <v>32</v>
       </c>
@@ -15718,7 +15753,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B566" s="2" t="s">
         <v>32</v>
       </c>
@@ -15738,7 +15773,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="567" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A567" s="15"/>
       <c r="B567" s="5" t="s">
         <v>32</v>
@@ -15757,7 +15792,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B568" s="2" t="s">
         <v>32</v>
       </c>
@@ -15777,7 +15812,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B569" s="2" t="s">
         <v>32</v>
       </c>
@@ -15800,7 +15835,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B570" s="5" t="s">
         <v>32</v>
       </c>
@@ -15815,7 +15850,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B571" s="5" t="s">
         <v>32</v>
       </c>
@@ -15830,7 +15865,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B572" s="2" t="s">
         <v>32</v>
       </c>
@@ -15853,7 +15888,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B573" s="2" t="s">
         <v>32</v>
       </c>
@@ -15876,7 +15911,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B574" s="2" t="s">
         <v>32</v>
       </c>
@@ -15899,7 +15934,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A575" s="14">
         <v>25</v>
       </c>
@@ -15928,7 +15963,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A576" s="14">
         <v>25</v>
       </c>
@@ -15954,7 +15989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A577" s="14">
         <v>25</v>
       </c>
@@ -15980,7 +16015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A578" s="14">
         <v>25</v>
       </c>
@@ -16006,7 +16041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A579" s="14">
         <v>25</v>
       </c>
@@ -16032,7 +16067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A580" s="14">
         <v>25</v>
       </c>
@@ -16058,7 +16093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A581" s="14">
         <v>25</v>
       </c>
@@ -16084,7 +16119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A582" s="14">
         <v>25</v>
       </c>
@@ -16110,7 +16145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A583" s="14">
         <v>25</v>
       </c>
@@ -16136,7 +16171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A584" s="14">
         <v>25</v>
       </c>
@@ -16162,7 +16197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A585" s="14">
         <v>25</v>
       </c>
@@ -16188,7 +16223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A586" s="14">
         <v>25</v>
       </c>
@@ -16217,7 +16252,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A587" s="14">
         <v>25</v>
       </c>
@@ -16243,7 +16278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A588" s="14">
         <v>26</v>
       </c>
@@ -16272,7 +16307,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A589" s="14">
         <v>26</v>
       </c>
@@ -16298,7 +16333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A590" s="14">
         <v>26</v>
       </c>
@@ -16324,7 +16359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A591" s="14">
         <v>26</v>
       </c>
@@ -16350,7 +16385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A592" s="14">
         <v>26</v>
       </c>
@@ -16376,7 +16411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A593" s="14">
         <v>26</v>
       </c>
@@ -16402,7 +16437,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A594" s="14">
         <v>26</v>
       </c>
@@ -16428,7 +16463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A595" s="14">
         <v>26</v>
       </c>
@@ -16454,7 +16489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A596" s="14">
         <v>26</v>
       </c>
@@ -16480,7 +16515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A597" s="14">
         <v>26</v>
       </c>
@@ -16506,7 +16541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A598" s="14">
         <v>26</v>
       </c>
@@ -16532,7 +16567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A599" s="14">
         <v>26</v>
       </c>
@@ -16558,7 +16593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A600" s="14">
         <v>26</v>
       </c>
@@ -16584,7 +16619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A601" s="14">
         <v>26</v>
       </c>
@@ -16610,7 +16645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B602" s="2" t="s">
         <v>32</v>
       </c>
@@ -16636,7 +16671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A603" s="14">
         <v>27</v>
       </c>
@@ -16665,7 +16700,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A604" s="14">
         <v>27</v>
       </c>
@@ -16692,7 +16727,7 @@
       </c>
       <c r="I604" s="11"/>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A605" s="14">
         <v>27</v>
       </c>
@@ -16718,7 +16753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A606" s="14">
         <v>27</v>
       </c>
@@ -16744,7 +16779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A607" s="14">
         <v>27</v>
       </c>
@@ -16770,7 +16805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A608" s="14">
         <v>27</v>
       </c>
@@ -16796,7 +16831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A609" s="14">
         <v>27</v>
       </c>
@@ -16822,7 +16857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A610" s="14">
         <v>27</v>
       </c>
@@ -16848,7 +16883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A611" s="14">
         <v>27</v>
       </c>
@@ -16874,7 +16909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A612" s="14">
         <v>27</v>
       </c>
@@ -16900,7 +16935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A613" s="14">
         <v>27</v>
       </c>
@@ -16926,7 +16961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A614" s="14">
         <v>27</v>
       </c>
@@ -16952,7 +16987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A615" s="14">
         <v>27</v>
       </c>
@@ -16981,7 +17016,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A616" s="14">
         <v>27</v>
       </c>
@@ -17007,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A617" s="14">
         <v>27</v>
       </c>
@@ -17033,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A618" s="14">
         <v>27</v>
       </c>
@@ -17059,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A619" s="14">
         <v>27</v>
       </c>
@@ -17085,7 +17120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A620" s="14">
         <v>27</v>
       </c>
@@ -17111,7 +17146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A621" s="14">
         <v>27</v>
       </c>
@@ -17137,7 +17172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A622" s="14">
         <v>27</v>
       </c>
@@ -17163,7 +17198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A623" s="14">
         <v>28</v>
       </c>
@@ -17192,7 +17227,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A624" s="14">
         <v>28</v>
       </c>
@@ -17219,7 +17254,7 @@
       </c>
       <c r="I624" s="11"/>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A625" s="14">
         <v>28</v>
       </c>
@@ -17245,7 +17280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A626" s="14">
         <v>28</v>
       </c>
@@ -17271,7 +17306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A627" s="14">
         <v>28</v>
       </c>
@@ -17297,7 +17332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A628" s="14">
         <v>28</v>
       </c>
@@ -17323,7 +17358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A629" s="14">
         <v>28</v>
       </c>
@@ -17349,7 +17384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A630" s="14">
         <v>28</v>
       </c>
@@ -17375,7 +17410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A631" s="14">
         <v>28</v>
       </c>
@@ -17401,7 +17436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A632" s="14">
         <v>28</v>
       </c>
@@ -17427,7 +17462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A633" s="14">
         <v>28</v>
       </c>
@@ -17453,7 +17488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A634" s="14">
         <v>28</v>
       </c>
@@ -17479,7 +17514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A635" s="14">
         <v>28</v>
       </c>
@@ -17508,7 +17543,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A636" s="14">
         <v>28</v>
       </c>
@@ -17534,7 +17569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A637" s="14">
         <v>28</v>
       </c>
@@ -17560,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A638" s="14">
         <v>28</v>
       </c>
@@ -17586,7 +17621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A639" s="14">
         <v>28</v>
       </c>
@@ -17612,7 +17647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B640" s="2" t="s">
         <v>33</v>
       </c>
@@ -17635,7 +17670,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="641" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B641" s="2" t="s">
         <v>33</v>
       </c>
@@ -17658,7 +17693,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="642" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B642" s="2" t="s">
         <v>33</v>
       </c>
@@ -17681,7 +17716,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="643" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B643" s="2" t="s">
         <v>33</v>
       </c>
@@ -17704,7 +17739,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="644" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B644" s="2" t="s">
         <v>33</v>
       </c>
@@ -17727,7 +17762,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="645" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B645" s="2" t="s">
         <v>33</v>
       </c>
@@ -17750,7 +17785,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="646" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B646" s="2" t="s">
         <v>33</v>
       </c>
@@ -17773,7 +17808,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="647" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B647" s="2" t="s">
         <v>33</v>
       </c>
@@ -17805,24 +17840,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="23"/>
+    <col min="2" max="2" width="8.83203125" style="23"/>
     <col min="3" max="3" width="26" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="106.6640625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
         <v>93</v>
       </c>
@@ -17842,7 +17877,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="23">
         <v>1</v>
       </c>
@@ -17862,7 +17897,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="23">
         <v>2</v>
       </c>
@@ -17882,7 +17917,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="23">
         <v>3</v>
       </c>
@@ -17902,7 +17937,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="23">
         <v>4</v>
       </c>
@@ -17922,7 +17957,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="23">
         <v>5</v>
       </c>
@@ -17942,7 +17977,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23">
         <v>6</v>
       </c>
@@ -17962,7 +17997,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="23">
         <v>7</v>
       </c>
@@ -17982,7 +18017,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23">
         <v>8</v>
       </c>
@@ -18002,7 +18037,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="23">
         <v>9</v>
       </c>
@@ -18022,7 +18057,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="23">
         <v>10</v>
       </c>
@@ -18042,7 +18077,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="28" x14ac:dyDescent="0.15">
       <c r="B13" s="23">
         <v>11</v>
       </c>
@@ -18062,7 +18097,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="23">
         <v>12</v>
       </c>
@@ -18082,7 +18117,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="28" x14ac:dyDescent="0.15">
       <c r="B15" s="23">
         <v>13</v>
       </c>
@@ -18102,7 +18137,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="23">
         <v>14</v>
       </c>
@@ -18122,7 +18157,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="23">
         <v>15</v>
       </c>
@@ -18142,7 +18177,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="23">
         <v>16</v>
       </c>
@@ -18162,7 +18197,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="42" x14ac:dyDescent="0.15">
       <c r="B19" s="23">
         <v>17</v>
       </c>
@@ -18182,7 +18217,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="23">
         <v>18</v>
       </c>
@@ -18202,7 +18237,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="23">
         <v>19</v>
       </c>
@@ -18222,7 +18257,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="23">
         <v>20</v>
       </c>
@@ -18242,7 +18277,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="23">
         <v>21</v>
       </c>
@@ -18262,7 +18297,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23">
         <v>22</v>
       </c>
@@ -18282,7 +18317,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23">
         <v>23</v>
       </c>
@@ -18302,7 +18337,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="42" x14ac:dyDescent="0.15">
       <c r="B26" s="23">
         <v>24</v>
       </c>
@@ -18322,7 +18357,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23">
         <v>25</v>
       </c>
@@ -18342,7 +18377,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="23">
         <v>26</v>
       </c>
@@ -18362,7 +18397,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="34.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="23">
         <v>27</v>
       </c>
@@ -18382,7 +18417,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="28" x14ac:dyDescent="0.15">
       <c r="B30" s="23">
         <v>28</v>
       </c>
@@ -18411,21 +18446,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056A396E11C201049A295728E554B4204" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5308e23870a69a858a1f647203e717c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e" xmlns:ns3="61093040-1240-489f-8ca6-d5903aeb7a38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f096f016f089f4e04afada0be9633fb" ns2:_="" ns3:_="">
     <xsd:import namespace="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e"/>
@@ -18622,32 +18642,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E9542D-92F9-4D1A-958F-4A450E98A82B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="61093040-1240-489f-8ca6-d5903aeb7a38"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596E4C84-42D4-4598-BDCF-3CCDF8B9CA62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{538184D0-EAB6-4E2D-9B7C-E6F8B2B1B871}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18664,4 +18674,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596E4C84-42D4-4598-BDCF-3CCDF8B9CA62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E9542D-92F9-4D1A-958F-4A450E98A82B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="61093040-1240-489f-8ca6-d5903aeb7a38"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/USFWS_bull_trout_SSA_data_OR.xlsx
+++ b/data/USFWS_bull_trout_SSA_data_OR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scheuerl/Documents/GitHub/bulltrout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B02788-84CD-EA4E-B49E-C0B07571C2D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEAAEE0-FBE8-7647-8B82-4B36E4BD094F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11760" yWindow="8640" windowWidth="23040" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,7 +1104,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1113,8 +1113,8 @@
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" style="9"/>
     <col min="9" max="9" width="22.6640625" style="18" customWidth="1"/>
@@ -1135,10 +1135,10 @@
         <v>197</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>113</v>
@@ -1348,10 +1348,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="8">
         <v>1994</v>
@@ -1374,10 +1374,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="8">
         <v>1995</v>
@@ -1400,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" s="8">
         <v>1996</v>
@@ -1426,10 +1426,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" s="8">
         <v>1997</v>
@@ -1452,10 +1452,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="8">
         <v>1998</v>
@@ -1478,10 +1478,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="8">
         <v>1999</v>
@@ -1504,10 +1504,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="8">
         <v>2000</v>
@@ -1530,10 +1530,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="8">
         <v>2001</v>
@@ -1556,10 +1556,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="8">
         <v>2002</v>
@@ -1582,10 +1582,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="8">
         <v>2003</v>
@@ -1608,10 +1608,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="8">
         <v>2004</v>
@@ -1634,10 +1634,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G21" s="8">
         <v>2005</v>
@@ -1660,10 +1660,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="8">
         <v>2006</v>
@@ -1686,10 +1686,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="8">
         <v>2007</v>
@@ -1712,10 +1712,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="8">
         <v>2008</v>
@@ -1738,10 +1738,10 @@
         <v>5</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="8">
         <v>2009</v>
@@ -1764,10 +1764,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="8">
         <v>2010</v>
@@ -1790,10 +1790,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27" s="8">
         <v>2011</v>
@@ -1816,10 +1816,10 @@
         <v>5</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="8">
         <v>2012</v>
@@ -1842,10 +1842,10 @@
         <v>5</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" s="8">
         <v>2013</v>
@@ -1868,10 +1868,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G30" s="8">
         <v>2014</v>
@@ -1894,10 +1894,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G31" s="8">
         <v>2015</v>
@@ -1920,10 +1920,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G32" s="8">
         <v>2016</v>
@@ -1946,10 +1946,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G33" s="8">
         <v>2017</v>
@@ -1972,10 +1972,10 @@
         <v>5</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G34" s="8">
         <v>2018</v>
@@ -1998,10 +1998,10 @@
         <v>5</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G35" s="8">
         <v>2019</v>
@@ -2024,10 +2024,10 @@
         <v>5</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G36" s="8">
         <v>2020</v>
@@ -2050,10 +2050,10 @@
         <v>61</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G37" s="8">
         <v>2003</v>
@@ -2076,10 +2076,10 @@
         <v>61</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" s="8">
         <v>2004</v>
@@ -2102,10 +2102,10 @@
         <v>61</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G39" s="8">
         <v>2005</v>
@@ -2128,10 +2128,10 @@
         <v>61</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" s="8">
         <v>2006</v>
@@ -2154,10 +2154,10 @@
         <v>61</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G41" s="8">
         <v>2007</v>
@@ -2180,10 +2180,10 @@
         <v>61</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="8">
         <v>2008</v>
@@ -2206,10 +2206,10 @@
         <v>61</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G43" s="8">
         <v>2009</v>
@@ -2232,10 +2232,10 @@
         <v>61</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G44" s="8">
         <v>2010</v>
@@ -2258,10 +2258,10 @@
         <v>61</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G45" s="8">
         <v>2011</v>
@@ -2284,10 +2284,10 @@
         <v>61</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G46" s="8">
         <v>2012</v>
@@ -2310,10 +2310,10 @@
         <v>61</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G47" s="8">
         <v>2013</v>
@@ -2336,10 +2336,10 @@
         <v>61</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G48" s="8">
         <v>2014</v>
@@ -2362,10 +2362,10 @@
         <v>61</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G49" s="8">
         <v>2015</v>
@@ -2388,10 +2388,10 @@
         <v>61</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G50" s="8">
         <v>2016</v>
@@ -2414,10 +2414,10 @@
         <v>61</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G51" s="8">
         <v>2017</v>
@@ -2440,10 +2440,10 @@
         <v>61</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G52" s="8">
         <v>2018</v>
@@ -2466,10 +2466,10 @@
         <v>61</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G53" s="8">
         <v>2019</v>
@@ -2492,10 +2492,10 @@
         <v>61</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G54" s="8">
         <v>2020</v>
@@ -2518,10 +2518,10 @@
         <v>63</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G55" s="8">
         <v>1999</v>
@@ -2545,10 +2545,10 @@
         <v>63</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G56" s="8">
         <v>2000</v>
@@ -2572,10 +2572,10 @@
         <v>63</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G57" s="8">
         <v>2001</v>
@@ -2599,10 +2599,10 @@
         <v>63</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G58" s="8">
         <v>2002</v>
@@ -2626,10 +2626,10 @@
         <v>63</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G59" s="8">
         <v>2003</v>
@@ -2653,10 +2653,10 @@
         <v>63</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G60" s="8">
         <v>2004</v>
@@ -2680,10 +2680,10 @@
         <v>63</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G61" s="8">
         <v>2005</v>
@@ -2707,10 +2707,10 @@
         <v>63</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G62" s="8">
         <v>2006</v>
@@ -2734,10 +2734,10 @@
         <v>63</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G63" s="8">
         <v>2007</v>
@@ -2761,10 +2761,10 @@
         <v>63</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G64" s="8">
         <v>2008</v>
@@ -2788,10 +2788,10 @@
         <v>63</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G65" s="8">
         <v>2009</v>
@@ -2815,10 +2815,10 @@
         <v>63</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G66" s="8">
         <v>2010</v>
@@ -2842,10 +2842,10 @@
         <v>63</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G67" s="8">
         <v>2011</v>
@@ -2869,10 +2869,10 @@
         <v>63</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G68" s="8">
         <v>2012</v>
@@ -2896,10 +2896,10 @@
         <v>63</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G69" s="8">
         <v>2013</v>
@@ -2923,10 +2923,10 @@
         <v>63</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G70" s="8">
         <v>2014</v>
@@ -2950,10 +2950,10 @@
         <v>63</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G71" s="8">
         <v>2015</v>
@@ -2977,10 +2977,10 @@
         <v>63</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G72" s="8">
         <v>2016</v>
@@ -3004,10 +3004,10 @@
         <v>63</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G73" s="8">
         <v>2017</v>
@@ -3031,10 +3031,10 @@
         <v>63</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G74" s="8">
         <v>2018</v>
@@ -3058,10 +3058,10 @@
         <v>63</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G75" s="8">
         <v>2019</v>
@@ -3085,10 +3085,10 @@
         <v>63</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G76" s="8">
         <v>2020</v>
@@ -3112,10 +3112,10 @@
         <v>65</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G77" s="8">
         <v>2005</v>
@@ -3138,10 +3138,10 @@
         <v>65</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G78" s="8">
         <v>2006</v>
@@ -3164,10 +3164,10 @@
         <v>65</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G79" s="8">
         <v>2007</v>
@@ -3190,10 +3190,10 @@
         <v>65</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G80" s="8">
         <v>2008</v>
@@ -3216,10 +3216,10 @@
         <v>65</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G81" s="8">
         <v>2009</v>
@@ -3242,10 +3242,10 @@
         <v>65</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G82" s="8">
         <v>2010</v>
@@ -3268,10 +3268,10 @@
         <v>65</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G83" s="8">
         <v>2011</v>
@@ -3294,10 +3294,10 @@
         <v>65</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G84" s="8">
         <v>2012</v>
@@ -3320,10 +3320,10 @@
         <v>65</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G85" s="8">
         <v>2013</v>
@@ -3346,10 +3346,10 @@
         <v>65</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G86" s="8">
         <v>2014</v>
@@ -3372,10 +3372,10 @@
         <v>65</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G87" s="8">
         <v>2015</v>
@@ -3398,10 +3398,10 @@
         <v>65</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G88" s="8">
         <v>2016</v>
@@ -3424,10 +3424,10 @@
         <v>65</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G89" s="8">
         <v>2017</v>
@@ -3450,10 +3450,10 @@
         <v>65</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G90" s="8">
         <v>2018</v>
@@ -3476,10 +3476,10 @@
         <v>65</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G91" s="8">
         <v>2019</v>
@@ -3502,10 +3502,10 @@
         <v>65</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G92" s="8">
         <v>2020</v>
@@ -3554,10 +3554,10 @@
         <v>103</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G94" s="8">
         <v>2006</v>
@@ -3583,10 +3583,10 @@
         <v>103</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G95" s="8">
         <v>2007</v>
@@ -3609,10 +3609,10 @@
         <v>103</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G96" s="8">
         <v>2008</v>
@@ -3635,10 +3635,10 @@
         <v>103</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G97" s="8">
         <v>2009</v>
@@ -3661,10 +3661,10 @@
         <v>103</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G98" s="8">
         <v>2010</v>
@@ -3687,10 +3687,10 @@
         <v>103</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G99" s="8">
         <v>2011</v>
@@ -3713,10 +3713,10 @@
         <v>103</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G100" s="8">
         <v>2012</v>
@@ -3739,10 +3739,10 @@
         <v>103</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G101" s="8">
         <v>2013</v>
@@ -3765,10 +3765,10 @@
         <v>103</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G102" s="8">
         <v>2014</v>
@@ -3791,10 +3791,10 @@
         <v>103</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G103" s="8">
         <v>2015</v>
@@ -3817,10 +3817,10 @@
         <v>103</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G104" s="8">
         <v>2016</v>
@@ -3843,10 +3843,10 @@
         <v>103</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G105" s="8">
         <v>2017</v>
@@ -3869,10 +3869,10 @@
         <v>103</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G106" s="8">
         <v>2018</v>
@@ -3895,10 +3895,10 @@
         <v>103</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G107" s="8">
         <v>2019</v>
@@ -3921,10 +3921,10 @@
         <v>103</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G108" s="8">
         <v>2020</v>
@@ -4022,10 +4022,10 @@
         <v>38</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G112" s="8">
         <v>1986</v>
@@ -4048,10 +4048,10 @@
         <v>38</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G113" s="8">
         <v>1987</v>
@@ -4074,10 +4074,10 @@
         <v>38</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G114" s="8">
         <v>1988</v>
@@ -4100,10 +4100,10 @@
         <v>38</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G115" s="8">
         <v>1989</v>
@@ -4126,10 +4126,10 @@
         <v>38</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G116" s="8">
         <v>1990</v>
@@ -4152,10 +4152,10 @@
         <v>38</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G117" s="8">
         <v>1991</v>
@@ -4178,10 +4178,10 @@
         <v>38</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G118" s="8">
         <v>1992</v>
@@ -4204,10 +4204,10 @@
         <v>38</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G119" s="8">
         <v>1993</v>
@@ -4230,10 +4230,10 @@
         <v>38</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G120" s="8">
         <v>1994</v>
@@ -4256,10 +4256,10 @@
         <v>38</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G121" s="8">
         <v>1995</v>
@@ -4282,10 +4282,10 @@
         <v>38</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G122" s="8">
         <v>1996</v>
@@ -4308,10 +4308,10 @@
         <v>38</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G123" s="8">
         <v>1997</v>
@@ -4334,10 +4334,10 @@
         <v>38</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G124" s="8">
         <v>1998</v>
@@ -4360,10 +4360,10 @@
         <v>38</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G125" s="8">
         <v>1999</v>
@@ -4386,10 +4386,10 @@
         <v>38</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G126" s="8">
         <v>2000</v>
@@ -4412,10 +4412,10 @@
         <v>38</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G127" s="8">
         <v>2001</v>
@@ -4438,10 +4438,10 @@
         <v>38</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G128" s="8">
         <v>2002</v>
@@ -4464,10 +4464,10 @@
         <v>38</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G129" s="8">
         <v>2003</v>
@@ -4490,10 +4490,10 @@
         <v>38</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G130" s="8">
         <v>2004</v>
@@ -4516,10 +4516,10 @@
         <v>38</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G131" s="8">
         <v>2005</v>
@@ -4542,10 +4542,10 @@
         <v>38</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G132" s="8">
         <v>2006</v>
@@ -4568,10 +4568,10 @@
         <v>38</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G133" s="8">
         <v>2007</v>
@@ -4594,10 +4594,10 @@
         <v>38</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G134" s="8">
         <v>2008</v>
@@ -4620,10 +4620,10 @@
         <v>38</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G135" s="8">
         <v>2009</v>
@@ -4646,10 +4646,10 @@
         <v>38</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G136" s="8">
         <v>2010</v>
@@ -4672,10 +4672,10 @@
         <v>38</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G137" s="8">
         <v>2011</v>
@@ -4698,10 +4698,10 @@
         <v>38</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G138" s="8">
         <v>2012</v>
@@ -4724,10 +4724,10 @@
         <v>38</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G139" s="8">
         <v>2013</v>
@@ -4750,10 +4750,10 @@
         <v>38</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G140" s="8">
         <v>2014</v>
@@ -4776,10 +4776,10 @@
         <v>38</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G141" s="8">
         <v>2015</v>
@@ -4802,10 +4802,10 @@
         <v>38</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G142" s="8">
         <v>2016</v>
@@ -4828,10 +4828,10 @@
         <v>38</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G143" s="8">
         <v>2017</v>
@@ -4854,10 +4854,10 @@
         <v>38</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G144" s="8">
         <v>2018</v>
@@ -4880,10 +4880,10 @@
         <v>38</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G145" s="8">
         <v>2019</v>
@@ -4906,10 +4906,10 @@
         <v>38</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G146" s="8">
         <v>2020</v>
@@ -4935,10 +4935,10 @@
         <v>111</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G147" s="8">
         <v>1986</v>
@@ -4964,10 +4964,10 @@
         <v>111</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G148" s="8">
         <v>1987</v>
@@ -4990,10 +4990,10 @@
         <v>111</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G149" s="8">
         <v>1988</v>
@@ -5016,10 +5016,10 @@
         <v>111</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G150" s="8">
         <v>1989</v>
@@ -5042,10 +5042,10 @@
         <v>111</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G151" s="8">
         <v>1990</v>
@@ -5068,10 +5068,10 @@
         <v>111</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G152" s="8">
         <v>1991</v>
@@ -5094,10 +5094,10 @@
         <v>111</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G153" s="8">
         <v>1992</v>
@@ -5120,10 +5120,10 @@
         <v>111</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G154" s="8">
         <v>1993</v>
@@ -5146,10 +5146,10 @@
         <v>111</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G155" s="8">
         <v>1994</v>
@@ -5172,10 +5172,10 @@
         <v>111</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G156" s="8">
         <v>1995</v>
@@ -5198,10 +5198,10 @@
         <v>111</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G157" s="8">
         <v>1996</v>
@@ -5224,10 +5224,10 @@
         <v>111</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G158" s="8">
         <v>1997</v>
@@ -5250,10 +5250,10 @@
         <v>111</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G159" s="8">
         <v>1998</v>
@@ -5276,10 +5276,10 @@
         <v>111</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G160" s="8">
         <v>1999</v>
@@ -5302,10 +5302,10 @@
         <v>111</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G161" s="8">
         <v>2000</v>
@@ -5328,10 +5328,10 @@
         <v>111</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G162" s="8">
         <v>2001</v>
@@ -5354,10 +5354,10 @@
         <v>111</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G163" s="8">
         <v>2002</v>
@@ -5380,10 +5380,10 @@
         <v>111</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G164" s="8">
         <v>2003</v>
@@ -5406,10 +5406,10 @@
         <v>111</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G165" s="8">
         <v>2004</v>
@@ -5432,10 +5432,10 @@
         <v>111</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G166" s="8">
         <v>2005</v>
@@ -5458,10 +5458,10 @@
         <v>111</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G167" s="8">
         <v>2006</v>
@@ -5484,10 +5484,10 @@
         <v>111</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G168" s="8">
         <v>2007</v>
@@ -5510,10 +5510,10 @@
         <v>111</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G169" s="8">
         <v>2008</v>
@@ -5536,10 +5536,10 @@
         <v>111</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G170" s="8">
         <v>2009</v>
@@ -5562,10 +5562,10 @@
         <v>111</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G171" s="8">
         <v>2010</v>
@@ -5588,10 +5588,10 @@
         <v>111</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G172" s="8">
         <v>2011</v>
@@ -5614,10 +5614,10 @@
         <v>111</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G173" s="8">
         <v>2012</v>
@@ -5640,10 +5640,10 @@
         <v>111</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G174" s="8">
         <v>2013</v>
@@ -5666,10 +5666,10 @@
         <v>111</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G175" s="8">
         <v>2014</v>
@@ -5692,10 +5692,10 @@
         <v>111</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G176" s="8">
         <v>2015</v>
@@ -5718,10 +5718,10 @@
         <v>111</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G177" s="8">
         <v>2016</v>
@@ -5744,10 +5744,10 @@
         <v>111</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G178" s="8">
         <v>2017</v>
@@ -5770,10 +5770,10 @@
         <v>111</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G179" s="8">
         <v>2018</v>
@@ -5796,10 +5796,10 @@
         <v>111</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G180" s="8">
         <v>2019</v>
@@ -5822,10 +5822,10 @@
         <v>111</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G181" s="8">
         <v>2020</v>
@@ -5851,10 +5851,10 @@
         <v>66</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G182" s="8">
         <v>1994</v>
@@ -5877,10 +5877,10 @@
         <v>66</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G183" s="8">
         <v>1995</v>
@@ -5903,10 +5903,10 @@
         <v>66</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G184" s="8">
         <v>1996</v>
@@ -5929,10 +5929,10 @@
         <v>66</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G185" s="8">
         <v>1997</v>
@@ -5955,10 +5955,10 @@
         <v>66</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G186" s="8">
         <v>1998</v>
@@ -5981,10 +5981,10 @@
         <v>66</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G187" s="8">
         <v>1999</v>
@@ -6007,10 +6007,10 @@
         <v>66</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G188" s="8">
         <v>2000</v>
@@ -6033,10 +6033,10 @@
         <v>66</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G189" s="8">
         <v>2001</v>
@@ -6059,10 +6059,10 @@
         <v>66</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G190" s="8">
         <v>2002</v>
@@ -6085,10 +6085,10 @@
         <v>66</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G191" s="8">
         <v>2003</v>
@@ -6111,10 +6111,10 @@
         <v>66</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G192" s="8">
         <v>2004</v>
@@ -6137,10 +6137,10 @@
         <v>66</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G193" s="8">
         <v>2005</v>
@@ -6163,10 +6163,10 @@
         <v>66</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G194" s="8">
         <v>2006</v>
@@ -6192,10 +6192,10 @@
         <v>66</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G195" s="8">
         <v>2007</v>
@@ -6218,10 +6218,10 @@
         <v>66</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G196" s="8">
         <v>2008</v>
@@ -6244,10 +6244,10 @@
         <v>66</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G197" s="8">
         <v>2009</v>
@@ -6270,10 +6270,10 @@
         <v>66</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G198" s="8">
         <v>2010</v>
@@ -6296,10 +6296,10 @@
         <v>66</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G199" s="8">
         <v>2011</v>
@@ -6322,10 +6322,10 @@
         <v>66</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G200" s="8">
         <v>2012</v>
@@ -6348,10 +6348,10 @@
         <v>66</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G201" s="8">
         <v>2013</v>
@@ -6374,10 +6374,10 @@
         <v>66</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G202" s="8">
         <v>2014</v>
@@ -6400,10 +6400,10 @@
         <v>66</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G203" s="8">
         <v>2015</v>
@@ -6426,10 +6426,10 @@
         <v>66</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G204" s="8">
         <v>2016</v>
@@ -6452,10 +6452,10 @@
         <v>66</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G205" s="8">
         <v>2017</v>
@@ -6478,10 +6478,10 @@
         <v>66</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G206" s="8">
         <v>2018</v>
@@ -6504,10 +6504,10 @@
         <v>66</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G207" s="8">
         <v>2019</v>
@@ -6530,10 +6530,10 @@
         <v>66</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G208" s="8">
         <v>2020</v>
@@ -6556,10 +6556,10 @@
         <v>66</v>
       </c>
       <c r="E209" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F209" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G209" s="8">
         <v>1996</v>
@@ -6582,10 +6582,10 @@
         <v>66</v>
       </c>
       <c r="E210" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F210" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G210" s="8">
         <v>1997</v>
@@ -6608,10 +6608,10 @@
         <v>66</v>
       </c>
       <c r="E211" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F211" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G211" s="8">
         <v>1998</v>
@@ -6634,10 +6634,10 @@
         <v>66</v>
       </c>
       <c r="E212" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F212" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G212" s="8">
         <v>1999</v>
@@ -6660,10 +6660,10 @@
         <v>66</v>
       </c>
       <c r="E213" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F213" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F213" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G213" s="8">
         <v>2000</v>
@@ -6686,10 +6686,10 @@
         <v>66</v>
       </c>
       <c r="E214" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F214" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F214" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G214" s="8">
         <v>2001</v>
@@ -6712,10 +6712,10 @@
         <v>66</v>
       </c>
       <c r="E215" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F215" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F215" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G215" s="8">
         <v>2002</v>
@@ -6738,10 +6738,10 @@
         <v>66</v>
       </c>
       <c r="E216" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F216" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G216" s="8">
         <v>2003</v>
@@ -6764,10 +6764,10 @@
         <v>66</v>
       </c>
       <c r="E217" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F217" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F217" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G217" s="8">
         <v>2004</v>
@@ -6790,10 +6790,10 @@
         <v>66</v>
       </c>
       <c r="E218" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F218" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F218" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G218" s="8">
         <v>2005</v>
@@ -6816,10 +6816,10 @@
         <v>66</v>
       </c>
       <c r="E219" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F219" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F219" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G219" s="8">
         <v>2006</v>
@@ -6842,10 +6842,10 @@
         <v>66</v>
       </c>
       <c r="E220" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F220" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F220" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G220" s="8">
         <v>2007</v>
@@ -6868,10 +6868,10 @@
         <v>66</v>
       </c>
       <c r="E221" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F221" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F221" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G221" s="8">
         <v>2008</v>
@@ -6894,10 +6894,10 @@
         <v>66</v>
       </c>
       <c r="E222" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F222" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F222" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G222" s="8">
         <v>2009</v>
@@ -6920,10 +6920,10 @@
         <v>66</v>
       </c>
       <c r="E223" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F223" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G223" s="8">
         <v>2010</v>
@@ -6946,10 +6946,10 @@
         <v>66</v>
       </c>
       <c r="E224" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F224" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F224" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G224" s="8">
         <v>2011</v>
@@ -6972,10 +6972,10 @@
         <v>66</v>
       </c>
       <c r="E225" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F225" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F225" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G225" s="8">
         <v>2012</v>
@@ -6998,10 +6998,10 @@
         <v>66</v>
       </c>
       <c r="E226" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F226" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F226" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G226" s="8">
         <v>2013</v>
@@ -7027,10 +7027,10 @@
         <v>66</v>
       </c>
       <c r="E227" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F227" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F227" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G227" s="8">
         <v>2014</v>
@@ -7053,10 +7053,10 @@
         <v>66</v>
       </c>
       <c r="E228" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F228" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F228" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G228" s="8">
         <v>2015</v>
@@ -7082,10 +7082,10 @@
         <v>66</v>
       </c>
       <c r="E229" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F229" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F229" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G229" s="8">
         <v>2016</v>
@@ -7111,10 +7111,10 @@
         <v>66</v>
       </c>
       <c r="E230" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F230" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F230" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G230" s="8">
         <v>2017</v>
@@ -7416,10 +7416,10 @@
         <v>74</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G243" s="8">
         <v>1994</v>
@@ -7442,10 +7442,10 @@
         <v>74</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G244" s="8">
         <v>1995</v>
@@ -7468,10 +7468,10 @@
         <v>74</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G245" s="8">
         <v>1996</v>
@@ -7494,10 +7494,10 @@
         <v>74</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G246" s="8">
         <v>1997</v>
@@ -7520,10 +7520,10 @@
         <v>74</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G247" s="8">
         <v>1998</v>
@@ -7546,10 +7546,10 @@
         <v>74</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G248" s="8">
         <v>1999</v>
@@ -7572,10 +7572,10 @@
         <v>74</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G249" s="8">
         <v>2000</v>
@@ -7598,10 +7598,10 @@
         <v>74</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G250" s="8">
         <v>2001</v>
@@ -7624,10 +7624,10 @@
         <v>74</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G251" s="8">
         <v>2002</v>
@@ -7650,10 +7650,10 @@
         <v>74</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G252" s="8">
         <v>2003</v>
@@ -7676,10 +7676,10 @@
         <v>74</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G253" s="8">
         <v>2004</v>
@@ -7702,10 +7702,10 @@
         <v>74</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G254" s="8">
         <v>2005</v>
@@ -7728,10 +7728,10 @@
         <v>74</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G255" s="8">
         <v>2006</v>
@@ -7754,10 +7754,10 @@
         <v>74</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G256" s="8">
         <v>2007</v>
@@ -7780,10 +7780,10 @@
         <v>74</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G257" s="8">
         <v>2008</v>
@@ -7806,10 +7806,10 @@
         <v>74</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G258" s="8">
         <v>2009</v>
@@ -7832,10 +7832,10 @@
         <v>74</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G259" s="8">
         <v>2010</v>
@@ -7858,10 +7858,10 @@
         <v>74</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G260" s="8">
         <v>2011</v>
@@ -7884,10 +7884,10 @@
         <v>74</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G261" s="8">
         <v>2012</v>
@@ -7910,10 +7910,10 @@
         <v>74</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G262" s="8">
         <v>2013</v>
@@ -7936,10 +7936,10 @@
         <v>74</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G263" s="8">
         <v>2014</v>
@@ -7962,10 +7962,10 @@
         <v>74</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G264" s="8">
         <v>2015</v>
@@ -7988,10 +7988,10 @@
         <v>74</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G265" s="8">
         <v>2016</v>
@@ -8014,10 +8014,10 @@
         <v>74</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G266" s="8">
         <v>2017</v>
@@ -8040,10 +8040,10 @@
         <v>74</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G267" s="8">
         <v>2018</v>
@@ -8066,10 +8066,10 @@
         <v>74</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G268" s="8">
         <v>2019</v>
@@ -8092,10 +8092,10 @@
         <v>74</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G269" s="8">
         <v>2020</v>
@@ -8118,10 +8118,10 @@
         <v>75</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G270" s="8">
         <v>1994</v>
@@ -8144,10 +8144,10 @@
         <v>75</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G271" s="8">
         <v>1995</v>
@@ -8170,10 +8170,10 @@
         <v>75</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G272" s="8">
         <v>1996</v>
@@ -8196,10 +8196,10 @@
         <v>75</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G273" s="8">
         <v>1997</v>
@@ -8222,10 +8222,10 @@
         <v>75</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G274" s="8">
         <v>1998</v>
@@ -8248,10 +8248,10 @@
         <v>75</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G275" s="8">
         <v>1999</v>
@@ -8274,10 +8274,10 @@
         <v>75</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G276" s="8">
         <v>2000</v>
@@ -8300,10 +8300,10 @@
         <v>75</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G277" s="8">
         <v>2001</v>
@@ -8326,10 +8326,10 @@
         <v>75</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G278" s="8">
         <v>2002</v>
@@ -8352,10 +8352,10 @@
         <v>75</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G279" s="8">
         <v>2003</v>
@@ -8378,10 +8378,10 @@
         <v>75</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G280" s="8">
         <v>2004</v>
@@ -8404,10 +8404,10 @@
         <v>75</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G281" s="8">
         <v>2005</v>
@@ -8430,10 +8430,10 @@
         <v>75</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G282" s="8">
         <v>2006</v>
@@ -8456,10 +8456,10 @@
         <v>75</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G283" s="8">
         <v>2007</v>
@@ -8482,10 +8482,10 @@
         <v>75</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G284" s="8">
         <v>2008</v>
@@ -8508,10 +8508,10 @@
         <v>75</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G285" s="8">
         <v>2009</v>
@@ -8534,10 +8534,10 @@
         <v>75</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G286" s="8">
         <v>2010</v>
@@ -8560,10 +8560,10 @@
         <v>75</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G287" s="8">
         <v>2011</v>
@@ -8586,10 +8586,10 @@
         <v>75</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G288" s="8">
         <v>2012</v>
@@ -8612,10 +8612,10 @@
         <v>75</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G289" s="8">
         <v>2013</v>
@@ -8638,10 +8638,10 @@
         <v>75</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G290" s="8">
         <v>2014</v>
@@ -8664,10 +8664,10 @@
         <v>75</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G291" s="8">
         <v>2015</v>
@@ -8690,10 +8690,10 @@
         <v>75</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G292" s="8">
         <v>2016</v>
@@ -8719,10 +8719,10 @@
         <v>75</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G293" s="8">
         <v>2017</v>
@@ -8745,10 +8745,10 @@
         <v>75</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G294" s="8">
         <v>2018</v>
@@ -8774,10 +8774,10 @@
         <v>75</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G295" s="8">
         <v>2019</v>
@@ -8800,10 +8800,10 @@
         <v>75</v>
       </c>
       <c r="E296" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F296" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F296" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G296" s="8">
         <v>2002</v>
@@ -8829,10 +8829,10 @@
         <v>75</v>
       </c>
       <c r="E297" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F297" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F297" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G297" s="8">
         <v>2003</v>
@@ -8855,10 +8855,10 @@
         <v>75</v>
       </c>
       <c r="E298" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F298" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F298" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G298" s="8">
         <v>2004</v>
@@ -8881,10 +8881,10 @@
         <v>75</v>
       </c>
       <c r="E299" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F299" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F299" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G299" s="8">
         <v>2005</v>
@@ -8907,10 +8907,10 @@
         <v>75</v>
       </c>
       <c r="E300" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F300" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F300" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G300" s="8">
         <v>2006</v>
@@ -8933,10 +8933,10 @@
         <v>75</v>
       </c>
       <c r="E301" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F301" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F301" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G301" s="8">
         <v>2007</v>
@@ -8959,10 +8959,10 @@
         <v>75</v>
       </c>
       <c r="E302" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F302" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F302" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G302" s="8">
         <v>2008</v>
@@ -8985,10 +8985,10 @@
         <v>75</v>
       </c>
       <c r="E303" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F303" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F303" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G303" s="8">
         <v>2009</v>
@@ -9011,10 +9011,10 @@
         <v>75</v>
       </c>
       <c r="E304" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F304" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F304" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G304" s="8">
         <v>2010</v>
@@ -9037,10 +9037,10 @@
         <v>75</v>
       </c>
       <c r="E305" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F305" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F305" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G305" s="8">
         <v>2011</v>
@@ -9063,10 +9063,10 @@
         <v>75</v>
       </c>
       <c r="E306" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F306" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F306" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G306" s="8">
         <v>2012</v>
@@ -9089,10 +9089,10 @@
         <v>75</v>
       </c>
       <c r="E307" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F307" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F307" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G307" s="8">
         <v>2013</v>
@@ -9115,10 +9115,10 @@
         <v>75</v>
       </c>
       <c r="E308" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F308" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F308" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G308" s="8">
         <v>2014</v>
@@ -9141,10 +9141,10 @@
         <v>75</v>
       </c>
       <c r="E309" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F309" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F309" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G309" s="8">
         <v>2015</v>
@@ -9167,10 +9167,10 @@
         <v>75</v>
       </c>
       <c r="E310" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F310" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F310" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G310" s="8">
         <v>2016</v>
@@ -9193,10 +9193,10 @@
         <v>75</v>
       </c>
       <c r="E311" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F311" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F311" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G311" s="8">
         <v>2017</v>
@@ -9219,10 +9219,10 @@
         <v>75</v>
       </c>
       <c r="E312" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F312" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F312" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G312" s="8">
         <v>2018</v>
@@ -9245,10 +9245,10 @@
         <v>75</v>
       </c>
       <c r="E313" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F313" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F313" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G313" s="8">
         <v>2019</v>
@@ -9271,10 +9271,10 @@
         <v>75</v>
       </c>
       <c r="E314" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F314" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F314" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G314" s="8">
         <v>2020</v>
@@ -9297,10 +9297,10 @@
         <v>90</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G315" s="8">
         <v>1990</v>
@@ -9323,10 +9323,10 @@
         <v>90</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G316" s="8">
         <v>1991</v>
@@ -9349,10 +9349,10 @@
         <v>90</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G317" s="8">
         <v>1992</v>
@@ -9375,10 +9375,10 @@
         <v>90</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F318" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G318" s="8">
         <v>1993</v>
@@ -9401,10 +9401,10 @@
         <v>90</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F319" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G319" s="8">
         <v>1994</v>
@@ -9427,10 +9427,10 @@
         <v>90</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F320" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G320" s="8">
         <v>1995</v>
@@ -9453,10 +9453,10 @@
         <v>90</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F321" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G321" s="8">
         <v>1996</v>
@@ -9479,10 +9479,10 @@
         <v>90</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F322" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G322" s="8">
         <v>1997</v>
@@ -9505,10 +9505,10 @@
         <v>90</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F323" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G323" s="8">
         <v>1998</v>
@@ -9531,10 +9531,10 @@
         <v>90</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F324" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G324" s="8">
         <v>1999</v>
@@ -9557,10 +9557,10 @@
         <v>90</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F325" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G325" s="8">
         <v>2000</v>
@@ -9583,10 +9583,10 @@
         <v>90</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F326" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G326" s="8">
         <v>2001</v>
@@ -9609,10 +9609,10 @@
         <v>90</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F327" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G327" s="8">
         <v>2002</v>
@@ -9635,10 +9635,10 @@
         <v>90</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F328" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G328" s="8">
         <v>2003</v>
@@ -9661,10 +9661,10 @@
         <v>90</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F329" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G329" s="8">
         <v>2004</v>
@@ -9687,10 +9687,10 @@
         <v>90</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F330" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G330" s="8">
         <v>2005</v>
@@ -9713,10 +9713,10 @@
         <v>90</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G331" s="8">
         <v>2006</v>
@@ -9739,10 +9739,10 @@
         <v>90</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G332" s="8">
         <v>2007</v>
@@ -9765,10 +9765,10 @@
         <v>90</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F333" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G333" s="8">
         <v>2008</v>
@@ -9791,10 +9791,10 @@
         <v>90</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F334" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G334" s="8">
         <v>2009</v>
@@ -9817,10 +9817,10 @@
         <v>90</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F335" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G335" s="8">
         <v>2010</v>
@@ -9843,10 +9843,10 @@
         <v>90</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G336" s="8">
         <v>2011</v>
@@ -9869,10 +9869,10 @@
         <v>90</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G337" s="8">
         <v>2012</v>
@@ -9895,10 +9895,10 @@
         <v>90</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F338" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G338" s="8">
         <v>2013</v>
@@ -9921,10 +9921,10 @@
         <v>90</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F339" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G339" s="8">
         <v>2014</v>
@@ -9947,10 +9947,10 @@
         <v>90</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F340" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G340" s="8">
         <v>2015</v>
@@ -9973,10 +9973,10 @@
         <v>90</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F341" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G341" s="8">
         <v>2016</v>
@@ -9999,10 +9999,10 @@
         <v>90</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F342" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G342" s="8">
         <v>2017</v>
@@ -10021,7 +10021,7 @@
       <c r="D343" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
       <c r="I343" s="18" t="s">
         <v>185</v>
       </c>
@@ -10132,10 +10132,10 @@
         <v>77</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F348" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G348" s="8">
         <v>1998</v>
@@ -10158,10 +10158,10 @@
         <v>77</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G349" s="8">
         <v>1999</v>
@@ -10184,10 +10184,10 @@
         <v>77</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F350" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G350" s="8">
         <v>2000</v>
@@ -10210,10 +10210,10 @@
         <v>77</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F351" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G351" s="8">
         <v>2001</v>
@@ -10236,10 +10236,10 @@
         <v>77</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G352" s="8">
         <v>2002</v>
@@ -10265,10 +10265,10 @@
         <v>77</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F353" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G353" s="8">
         <v>2003</v>
@@ -10291,10 +10291,10 @@
         <v>77</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F354" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G354" s="8">
         <v>2004</v>
@@ -10317,10 +10317,10 @@
         <v>77</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G355" s="8">
         <v>2005</v>
@@ -10343,10 +10343,10 @@
         <v>77</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G356" s="8">
         <v>2006</v>
@@ -10369,10 +10369,10 @@
         <v>77</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F357" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G357" s="8">
         <v>2007</v>
@@ -10398,10 +10398,10 @@
         <v>77</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F358" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G358" s="8">
         <v>2008</v>
@@ -10424,10 +10424,10 @@
         <v>77</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G359" s="8">
         <v>2009</v>
@@ -10453,10 +10453,10 @@
         <v>77</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G360" s="8">
         <v>2010</v>
@@ -10479,10 +10479,10 @@
         <v>77</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G361" s="8">
         <v>2011</v>
@@ -10505,10 +10505,10 @@
         <v>77</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G362" s="8">
         <v>2012</v>
@@ -10531,10 +10531,10 @@
         <v>77</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G363" s="8">
         <v>2013</v>
@@ -10557,10 +10557,10 @@
         <v>77</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G364" s="8">
         <v>2014</v>
@@ -10583,10 +10583,10 @@
         <v>77</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G365" s="8">
         <v>2015</v>
@@ -10609,10 +10609,10 @@
         <v>77</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F366" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G366" s="8">
         <v>2016</v>
@@ -10638,10 +10638,10 @@
         <v>77</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G367" s="8">
         <v>2017</v>
@@ -10667,10 +10667,10 @@
         <v>77</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F368" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G368" s="8">
         <v>2018</v>
@@ -10696,10 +10696,10 @@
         <v>77</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G369" s="8">
         <v>2019</v>
@@ -10725,10 +10725,10 @@
         <v>77</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F370" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G370" s="8">
         <v>2020</v>
@@ -10751,10 +10751,10 @@
         <v>77</v>
       </c>
       <c r="E371" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F371" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F371" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G371" s="8">
         <v>1999</v>
@@ -10780,10 +10780,10 @@
         <v>77</v>
       </c>
       <c r="E372" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F372" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F372" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G372" s="8">
         <v>2000</v>
@@ -10806,10 +10806,10 @@
         <v>77</v>
       </c>
       <c r="E373" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F373" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F373" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G373" s="8">
         <v>2001</v>
@@ -10832,10 +10832,10 @@
         <v>77</v>
       </c>
       <c r="E374" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F374" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F374" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G374" s="8">
         <v>2002</v>
@@ -10858,10 +10858,10 @@
         <v>77</v>
       </c>
       <c r="E375" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F375" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F375" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G375" s="8">
         <v>2003</v>
@@ -10884,10 +10884,10 @@
         <v>77</v>
       </c>
       <c r="E376" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F376" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F376" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G376" s="8">
         <v>2004</v>
@@ -10910,10 +10910,10 @@
         <v>77</v>
       </c>
       <c r="E377" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F377" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F377" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G377" s="8">
         <v>2005</v>
@@ -10936,10 +10936,10 @@
         <v>77</v>
       </c>
       <c r="E378" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F378" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F378" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G378" s="8">
         <v>2006</v>
@@ -10962,10 +10962,10 @@
         <v>77</v>
       </c>
       <c r="E379" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F379" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F379" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G379" s="8">
         <v>2007</v>
@@ -10988,10 +10988,10 @@
         <v>77</v>
       </c>
       <c r="E380" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F380" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F380" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G380" s="8">
         <v>2008</v>
@@ -11014,10 +11014,10 @@
         <v>77</v>
       </c>
       <c r="E381" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F381" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F381" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G381" s="8">
         <v>2009</v>
@@ -11040,10 +11040,10 @@
         <v>77</v>
       </c>
       <c r="E382" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F382" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F382" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G382" s="8">
         <v>2010</v>
@@ -11066,10 +11066,10 @@
         <v>77</v>
       </c>
       <c r="E383" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F383" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F383" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G383" s="8">
         <v>2011</v>
@@ -11092,10 +11092,10 @@
         <v>77</v>
       </c>
       <c r="E384" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F384" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F384" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G384" s="8">
         <v>2012</v>
@@ -11118,10 +11118,10 @@
         <v>77</v>
       </c>
       <c r="E385" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F385" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F385" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G385" s="8">
         <v>2013</v>
@@ -11144,10 +11144,10 @@
         <v>77</v>
       </c>
       <c r="E386" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F386" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F386" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G386" s="8">
         <v>2014</v>
@@ -11170,10 +11170,10 @@
         <v>77</v>
       </c>
       <c r="E387" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F387" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F387" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G387" s="8">
         <v>2015</v>
@@ -11196,10 +11196,10 @@
         <v>77</v>
       </c>
       <c r="E388" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F388" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F388" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G388" s="8">
         <v>2016</v>
@@ -11222,10 +11222,10 @@
         <v>77</v>
       </c>
       <c r="E389" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F389" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F389" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G389" s="8">
         <v>2017</v>
@@ -11248,10 +11248,10 @@
         <v>77</v>
       </c>
       <c r="E390" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F390" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F390" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G390" s="8">
         <v>2018</v>
@@ -11274,10 +11274,10 @@
         <v>77</v>
       </c>
       <c r="E391" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F391" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F391" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G391" s="8">
         <v>2019</v>
@@ -11300,10 +11300,10 @@
         <v>77</v>
       </c>
       <c r="E392" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F392" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F392" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G392" s="8">
         <v>2020</v>
@@ -11395,10 +11395,10 @@
         <v>60</v>
       </c>
       <c r="E396" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F396" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G396" s="8">
         <v>2009</v>
@@ -11424,10 +11424,10 @@
         <v>60</v>
       </c>
       <c r="E397" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G397" s="8">
         <v>2010</v>
@@ -11450,10 +11450,10 @@
         <v>60</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F398" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G398" s="8">
         <v>2011</v>
@@ -11476,10 +11476,10 @@
         <v>60</v>
       </c>
       <c r="E399" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F399" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G399" s="8">
         <v>2012</v>
@@ -11502,10 +11502,10 @@
         <v>60</v>
       </c>
       <c r="E400" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G400" s="8">
         <v>2013</v>
@@ -11528,10 +11528,10 @@
         <v>60</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G401" s="8">
         <v>2014</v>
@@ -11557,10 +11557,10 @@
         <v>60</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F402" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G402" s="8">
         <v>2015</v>
@@ -11586,10 +11586,10 @@
         <v>60</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F403" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G403" s="8">
         <v>2016</v>
@@ -11612,10 +11612,10 @@
         <v>60</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G404" s="8">
         <v>2017</v>
@@ -11638,10 +11638,10 @@
         <v>92</v>
       </c>
       <c r="E405" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G405" s="8">
         <v>1999</v>
@@ -11664,10 +11664,10 @@
         <v>92</v>
       </c>
       <c r="E406" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G406" s="8">
         <v>2000</v>
@@ -11690,10 +11690,10 @@
         <v>92</v>
       </c>
       <c r="E407" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F407" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G407" s="8">
         <v>2001</v>
@@ -11716,10 +11716,10 @@
         <v>92</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F408" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G408" s="8">
         <v>2002</v>
@@ -11742,10 +11742,10 @@
         <v>92</v>
       </c>
       <c r="E409" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F409" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G409" s="8">
         <v>2003</v>
@@ -11768,10 +11768,10 @@
         <v>92</v>
       </c>
       <c r="E410" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F410" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G410" s="8">
         <v>2004</v>
@@ -11794,10 +11794,10 @@
         <v>92</v>
       </c>
       <c r="E411" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F411" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G411" s="8">
         <v>2005</v>
@@ -11820,10 +11820,10 @@
         <v>92</v>
       </c>
       <c r="E412" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F412" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G412" s="8">
         <v>2006</v>
@@ -11846,10 +11846,10 @@
         <v>92</v>
       </c>
       <c r="E413" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F413" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G413" s="8">
         <v>2007</v>
@@ -11872,10 +11872,10 @@
         <v>92</v>
       </c>
       <c r="E414" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F414" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G414" s="8">
         <v>2008</v>
@@ -11898,10 +11898,10 @@
         <v>92</v>
       </c>
       <c r="E415" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F415" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G415" s="8">
         <v>2009</v>
@@ -11924,10 +11924,10 @@
         <v>92</v>
       </c>
       <c r="E416" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F416" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G416" s="8">
         <v>2010</v>
@@ -11950,10 +11950,10 @@
         <v>92</v>
       </c>
       <c r="E417" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F417" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G417" s="8">
         <v>2011</v>
@@ -11976,10 +11976,10 @@
         <v>92</v>
       </c>
       <c r="E418" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F418" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G418" s="8">
         <v>2012</v>
@@ -12002,10 +12002,10 @@
         <v>92</v>
       </c>
       <c r="E419" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F419" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G419" s="8">
         <v>2013</v>
@@ -12028,10 +12028,10 @@
         <v>92</v>
       </c>
       <c r="E420" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F420" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G420" s="8">
         <v>2014</v>
@@ -12054,10 +12054,10 @@
         <v>92</v>
       </c>
       <c r="E421" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F421" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G421" s="8">
         <v>2015</v>
@@ -12080,10 +12080,10 @@
         <v>92</v>
       </c>
       <c r="E422" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F422" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G422" s="8">
         <v>2016</v>
@@ -12106,10 +12106,10 @@
         <v>92</v>
       </c>
       <c r="E423" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F423" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G423" s="8">
         <v>2017</v>
@@ -12132,10 +12132,10 @@
         <v>92</v>
       </c>
       <c r="E424" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F424" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G424" s="8">
         <v>2018</v>
@@ -12158,10 +12158,10 @@
         <v>92</v>
       </c>
       <c r="E425" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F425" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G425" s="8">
         <v>2019</v>
@@ -12184,10 +12184,10 @@
         <v>44</v>
       </c>
       <c r="E426" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F426" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G426" s="8">
         <v>1999</v>
@@ -12210,10 +12210,10 @@
         <v>44</v>
       </c>
       <c r="E427" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F427" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G427" s="8">
         <v>2000</v>
@@ -12236,10 +12236,10 @@
         <v>44</v>
       </c>
       <c r="E428" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F428" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G428" s="8">
         <v>2001</v>
@@ -12262,10 +12262,10 @@
         <v>44</v>
       </c>
       <c r="E429" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F429" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G429" s="8">
         <v>2002</v>
@@ -12288,10 +12288,10 @@
         <v>44</v>
       </c>
       <c r="E430" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F430" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G430" s="8">
         <v>2003</v>
@@ -12314,10 +12314,10 @@
         <v>44</v>
       </c>
       <c r="E431" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F431" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G431" s="8">
         <v>2004</v>
@@ -12340,10 +12340,10 @@
         <v>44</v>
       </c>
       <c r="E432" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F432" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G432" s="8">
         <v>2005</v>
@@ -12366,10 +12366,10 @@
         <v>44</v>
       </c>
       <c r="E433" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F433" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G433" s="8">
         <v>2006</v>
@@ -12392,10 +12392,10 @@
         <v>44</v>
       </c>
       <c r="E434" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F434" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G434" s="8">
         <v>2007</v>
@@ -12418,10 +12418,10 @@
         <v>44</v>
       </c>
       <c r="E435" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F435" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G435" s="8">
         <v>2008</v>
@@ -12444,10 +12444,10 @@
         <v>44</v>
       </c>
       <c r="E436" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F436" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G436" s="8">
         <v>2009</v>
@@ -12470,10 +12470,10 @@
         <v>44</v>
       </c>
       <c r="E437" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F437" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G437" s="8">
         <v>2010</v>
@@ -12496,10 +12496,10 @@
         <v>44</v>
       </c>
       <c r="E438" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F438" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G438" s="8">
         <v>2011</v>
@@ -12522,10 +12522,10 @@
         <v>44</v>
       </c>
       <c r="E439" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F439" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G439" s="8">
         <v>2012</v>
@@ -12548,10 +12548,10 @@
         <v>44</v>
       </c>
       <c r="E440" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G440" s="8">
         <v>2013</v>
@@ -12574,10 +12574,10 @@
         <v>44</v>
       </c>
       <c r="E441" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F441" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G441" s="8">
         <v>2014</v>
@@ -12600,10 +12600,10 @@
         <v>44</v>
       </c>
       <c r="E442" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F442" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G442" s="8">
         <v>2015</v>
@@ -12626,10 +12626,10 @@
         <v>44</v>
       </c>
       <c r="E443" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F443" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G443" s="8">
         <v>2016</v>
@@ -12652,10 +12652,10 @@
         <v>44</v>
       </c>
       <c r="E444" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F444" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G444" s="8">
         <v>2017</v>
@@ -12678,10 +12678,10 @@
         <v>44</v>
       </c>
       <c r="E445" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F445" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G445" s="8">
         <v>2018</v>
@@ -12704,10 +12704,10 @@
         <v>44</v>
       </c>
       <c r="E446" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F446" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G446" s="8">
         <v>2019</v>
@@ -12753,10 +12753,10 @@
         <v>15</v>
       </c>
       <c r="E448" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G448" s="8">
         <v>1996</v>
@@ -12779,10 +12779,10 @@
         <v>15</v>
       </c>
       <c r="E449" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F449" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G449" s="8">
         <v>1997</v>
@@ -12805,10 +12805,10 @@
         <v>15</v>
       </c>
       <c r="E450" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G450" s="8">
         <v>1998</v>
@@ -12831,10 +12831,10 @@
         <v>15</v>
       </c>
       <c r="E451" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G451" s="8">
         <v>1999</v>
@@ -12857,10 +12857,10 @@
         <v>15</v>
       </c>
       <c r="E452" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G452" s="8">
         <v>2000</v>
@@ -12883,10 +12883,10 @@
         <v>15</v>
       </c>
       <c r="E453" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G453" s="8">
         <v>2001</v>
@@ -12909,10 +12909,10 @@
         <v>15</v>
       </c>
       <c r="E454" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F454" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G454" s="8">
         <v>2002</v>
@@ -12935,10 +12935,10 @@
         <v>15</v>
       </c>
       <c r="E455" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F455" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G455" s="8">
         <v>2003</v>
@@ -12961,10 +12961,10 @@
         <v>78</v>
       </c>
       <c r="E456" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F456" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F456" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G456" s="8">
         <v>1999</v>
@@ -12990,10 +12990,10 @@
         <v>78</v>
       </c>
       <c r="E457" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F457" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F457" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G457" s="8">
         <v>2000</v>
@@ -13016,10 +13016,10 @@
         <v>78</v>
       </c>
       <c r="E458" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F458" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F458" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G458" s="8">
         <v>2001</v>
@@ -13042,10 +13042,10 @@
         <v>78</v>
       </c>
       <c r="E459" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F459" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F459" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G459" s="8">
         <v>2002</v>
@@ -13068,10 +13068,10 @@
         <v>78</v>
       </c>
       <c r="E460" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F460" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F460" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G460" s="8">
         <v>2003</v>
@@ -13094,10 +13094,10 @@
         <v>78</v>
       </c>
       <c r="E461" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F461" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F461" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G461" s="8">
         <v>2004</v>
@@ -13120,10 +13120,10 @@
         <v>78</v>
       </c>
       <c r="E462" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F462" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F462" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G462" s="8">
         <v>2005</v>
@@ -13146,10 +13146,10 @@
         <v>78</v>
       </c>
       <c r="E463" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F463" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F463" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G463" s="8">
         <v>2006</v>
@@ -13172,10 +13172,10 @@
         <v>78</v>
       </c>
       <c r="E464" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F464" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F464" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G464" s="8">
         <v>2007</v>
@@ -13198,10 +13198,10 @@
         <v>78</v>
       </c>
       <c r="E465" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F465" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F465" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G465" s="8">
         <v>2008</v>
@@ -13224,10 +13224,10 @@
         <v>78</v>
       </c>
       <c r="E466" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F466" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F466" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G466" s="8">
         <v>2009</v>
@@ -13250,10 +13250,10 @@
         <v>78</v>
       </c>
       <c r="E467" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F467" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F467" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G467" s="8">
         <v>2010</v>
@@ -13276,10 +13276,10 @@
         <v>78</v>
       </c>
       <c r="E468" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F468" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F468" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G468" s="8">
         <v>2011</v>
@@ -13302,10 +13302,10 @@
         <v>78</v>
       </c>
       <c r="E469" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F469" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F469" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G469" s="8">
         <v>2012</v>
@@ -13328,10 +13328,10 @@
         <v>78</v>
       </c>
       <c r="E470" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F470" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F470" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G470" s="8">
         <v>2013</v>
@@ -13354,10 +13354,10 @@
         <v>78</v>
       </c>
       <c r="E471" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F471" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F471" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G471" s="8">
         <v>2014</v>
@@ -13380,10 +13380,10 @@
         <v>78</v>
       </c>
       <c r="E472" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F472" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F472" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G472" s="8">
         <v>2015</v>
@@ -13406,10 +13406,10 @@
         <v>78</v>
       </c>
       <c r="E473" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F473" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F473" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G473" s="8">
         <v>2016</v>
@@ -13432,10 +13432,10 @@
         <v>78</v>
       </c>
       <c r="E474" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F474" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F474" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G474" s="8">
         <v>2017</v>
@@ -13458,10 +13458,10 @@
         <v>78</v>
       </c>
       <c r="E475" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F475" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F475" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G475" s="8">
         <v>2018</v>
@@ -13484,10 +13484,10 @@
         <v>78</v>
       </c>
       <c r="E476" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F476" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F476" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G476" s="8">
         <v>2019</v>
@@ -13510,10 +13510,10 @@
         <v>78</v>
       </c>
       <c r="E477" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F477" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F477" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G477" s="8">
         <v>2020</v>
@@ -13613,10 +13613,10 @@
         <v>79</v>
       </c>
       <c r="E482" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G482" s="8">
         <v>2001</v>
@@ -13639,10 +13639,10 @@
         <v>79</v>
       </c>
       <c r="E483" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F483" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G483" s="8">
         <v>2002</v>
@@ -13665,10 +13665,10 @@
         <v>79</v>
       </c>
       <c r="E484" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G484" s="8">
         <v>2003</v>
@@ -13691,10 +13691,10 @@
         <v>79</v>
       </c>
       <c r="E485" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F485" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G485" s="8">
         <v>2004</v>
@@ -13717,10 +13717,10 @@
         <v>79</v>
       </c>
       <c r="E486" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G486" s="8">
         <v>2005</v>
@@ -13743,10 +13743,10 @@
         <v>79</v>
       </c>
       <c r="E487" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F487" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G487" s="8">
         <v>2006</v>
@@ -13769,10 +13769,10 @@
         <v>79</v>
       </c>
       <c r="E488" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F488" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G488" s="8">
         <v>2007</v>
@@ -13795,10 +13795,10 @@
         <v>79</v>
       </c>
       <c r="E489" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F489" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G489" s="8">
         <v>2008</v>
@@ -13821,10 +13821,10 @@
         <v>79</v>
       </c>
       <c r="E490" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F490" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G490" s="8">
         <v>2009</v>
@@ -13847,10 +13847,10 @@
         <v>79</v>
       </c>
       <c r="E491" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F491" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G491" s="8">
         <v>2010</v>
@@ -13873,10 +13873,10 @@
         <v>79</v>
       </c>
       <c r="E492" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G492" s="8">
         <v>2011</v>
@@ -13899,10 +13899,10 @@
         <v>79</v>
       </c>
       <c r="E493" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F493" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G493" s="8">
         <v>2012</v>
@@ -13925,10 +13925,10 @@
         <v>79</v>
       </c>
       <c r="E494" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G494" s="8">
         <v>2013</v>
@@ -13954,10 +13954,10 @@
         <v>79</v>
       </c>
       <c r="E495" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F495" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G495" s="8">
         <v>2014</v>
@@ -13980,10 +13980,10 @@
         <v>79</v>
       </c>
       <c r="E496" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F496" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G496" s="8">
         <v>2015</v>
@@ -14006,10 +14006,10 @@
         <v>79</v>
       </c>
       <c r="E497" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F497" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G497" s="8">
         <v>2016</v>
@@ -14032,10 +14032,10 @@
         <v>79</v>
       </c>
       <c r="E498" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F498" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G498" s="8">
         <v>2017</v>
@@ -14058,10 +14058,10 @@
         <v>79</v>
       </c>
       <c r="E499" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F499" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G499" s="8">
         <v>2018</v>
@@ -14084,10 +14084,10 @@
         <v>80</v>
       </c>
       <c r="E500" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F500" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G500" s="8">
         <v>2001</v>
@@ -14110,10 +14110,10 @@
         <v>80</v>
       </c>
       <c r="E501" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G501" s="8">
         <v>2002</v>
@@ -14136,10 +14136,10 @@
         <v>80</v>
       </c>
       <c r="E502" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F502" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G502" s="8">
         <v>2003</v>
@@ -14162,10 +14162,10 @@
         <v>80</v>
       </c>
       <c r="E503" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G503" s="8">
         <v>2004</v>
@@ -14188,10 +14188,10 @@
         <v>80</v>
       </c>
       <c r="E504" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F504" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G504" s="8">
         <v>2005</v>
@@ -14217,10 +14217,10 @@
         <v>80</v>
       </c>
       <c r="E505" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F505" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G505" s="8">
         <v>2006</v>
@@ -14243,10 +14243,10 @@
         <v>80</v>
       </c>
       <c r="E506" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G506" s="8">
         <v>2007</v>
@@ -14269,10 +14269,10 @@
         <v>80</v>
       </c>
       <c r="E507" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F507" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G507" s="8">
         <v>2008</v>
@@ -14295,10 +14295,10 @@
         <v>80</v>
       </c>
       <c r="E508" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F508" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G508" s="8">
         <v>2009</v>
@@ -14321,10 +14321,10 @@
         <v>80</v>
       </c>
       <c r="E509" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G509" s="8">
         <v>2010</v>
@@ -14347,10 +14347,10 @@
         <v>80</v>
       </c>
       <c r="E510" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F510" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G510" s="8">
         <v>2011</v>
@@ -14373,10 +14373,10 @@
         <v>80</v>
       </c>
       <c r="E511" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F511" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G511" s="8">
         <v>2012</v>
@@ -14399,10 +14399,10 @@
         <v>80</v>
       </c>
       <c r="E512" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F512" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G512" s="8">
         <v>2013</v>
@@ -14428,10 +14428,10 @@
         <v>80</v>
       </c>
       <c r="E513" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F513" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G513" s="8">
         <v>2014</v>
@@ -14454,10 +14454,10 @@
         <v>80</v>
       </c>
       <c r="E514" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F514" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G514" s="8">
         <v>2015</v>
@@ -14480,10 +14480,10 @@
         <v>80</v>
       </c>
       <c r="E515" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G515" s="8">
         <v>2016</v>
@@ -14506,10 +14506,10 @@
         <v>80</v>
       </c>
       <c r="E516" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F516" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G516" s="8">
         <v>2017</v>
@@ -14532,10 +14532,10 @@
         <v>80</v>
       </c>
       <c r="E517" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F517" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G517" s="8">
         <v>2018</v>
@@ -14558,10 +14558,10 @@
         <v>54</v>
       </c>
       <c r="E518" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F518" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G518" s="8">
         <v>2001</v>
@@ -14584,10 +14584,10 @@
         <v>54</v>
       </c>
       <c r="E519" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F519" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G519" s="8">
         <v>2002</v>
@@ -14610,10 +14610,10 @@
         <v>54</v>
       </c>
       <c r="E520" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G520" s="8">
         <v>2003</v>
@@ -14636,10 +14636,10 @@
         <v>54</v>
       </c>
       <c r="E521" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F521" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G521" s="8">
         <v>2004</v>
@@ -14662,10 +14662,10 @@
         <v>54</v>
       </c>
       <c r="E522" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G522" s="8">
         <v>2005</v>
@@ -14688,10 +14688,10 @@
         <v>54</v>
       </c>
       <c r="E523" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G523" s="8">
         <v>2006</v>
@@ -14714,10 +14714,10 @@
         <v>54</v>
       </c>
       <c r="E524" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G524" s="8">
         <v>2007</v>
@@ -14740,10 +14740,10 @@
         <v>54</v>
       </c>
       <c r="E525" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G525" s="8">
         <v>2008</v>
@@ -14766,10 +14766,10 @@
         <v>54</v>
       </c>
       <c r="E526" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G526" s="8">
         <v>2009</v>
@@ -14792,10 +14792,10 @@
         <v>54</v>
       </c>
       <c r="E527" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G527" s="8">
         <v>2010</v>
@@ -14818,10 +14818,10 @@
         <v>54</v>
       </c>
       <c r="E528" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G528" s="8">
         <v>2011</v>
@@ -14844,10 +14844,10 @@
         <v>54</v>
       </c>
       <c r="E529" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G529" s="8">
         <v>2012</v>
@@ -14870,10 +14870,10 @@
         <v>54</v>
       </c>
       <c r="E530" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G530" s="8">
         <v>2013</v>
@@ -14899,10 +14899,10 @@
         <v>54</v>
       </c>
       <c r="E531" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F531" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G531" s="8">
         <v>2014</v>
@@ -14925,10 +14925,10 @@
         <v>54</v>
       </c>
       <c r="E532" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F532" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G532" s="8">
         <v>2015</v>
@@ -14951,10 +14951,10 @@
         <v>54</v>
       </c>
       <c r="E533" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F533" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G533" s="8">
         <v>2016</v>
@@ -14977,10 +14977,10 @@
         <v>54</v>
       </c>
       <c r="E534" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G534" s="8">
         <v>2017</v>
@@ -15003,10 +15003,10 @@
         <v>54</v>
       </c>
       <c r="E535" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F535" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G535" s="8">
         <v>2018</v>
@@ -15052,10 +15052,10 @@
         <v>82</v>
       </c>
       <c r="E537" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F537" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G537" s="8">
         <v>2000</v>
@@ -15081,10 +15081,10 @@
         <v>82</v>
       </c>
       <c r="E538" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F538" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G538" s="8">
         <v>2001</v>
@@ -15110,10 +15110,10 @@
         <v>82</v>
       </c>
       <c r="E539" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G539" s="8">
         <v>2002</v>
@@ -15136,10 +15136,10 @@
         <v>82</v>
       </c>
       <c r="E540" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F540" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G540" s="8">
         <v>2003</v>
@@ -15162,10 +15162,10 @@
         <v>82</v>
       </c>
       <c r="E541" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F541" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G541" s="8">
         <v>2004</v>
@@ -15191,10 +15191,10 @@
         <v>82</v>
       </c>
       <c r="E542" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F542" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G542" s="8">
         <v>2005</v>
@@ -15217,10 +15217,10 @@
         <v>82</v>
       </c>
       <c r="E543" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F543" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G543" s="8">
         <v>2006</v>
@@ -15243,10 +15243,10 @@
         <v>82</v>
       </c>
       <c r="E544" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F544" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G544" s="8">
         <v>2007</v>
@@ -15269,10 +15269,10 @@
         <v>82</v>
       </c>
       <c r="E545" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F545" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G545" s="8">
         <v>2008</v>
@@ -15295,10 +15295,10 @@
         <v>82</v>
       </c>
       <c r="E546" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F546" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G546" s="8">
         <v>2009</v>
@@ -15321,10 +15321,10 @@
         <v>82</v>
       </c>
       <c r="E547" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F547" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G547" s="8">
         <v>2010</v>
@@ -15347,10 +15347,10 @@
         <v>82</v>
       </c>
       <c r="E548" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F548" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G548" s="8">
         <v>2011</v>
@@ -15373,10 +15373,10 @@
         <v>82</v>
       </c>
       <c r="E549" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F549" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G549" s="8">
         <v>2012</v>
@@ -15399,10 +15399,10 @@
         <v>82</v>
       </c>
       <c r="E550" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F550" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G550" s="8">
         <v>2013</v>
@@ -15425,10 +15425,10 @@
         <v>82</v>
       </c>
       <c r="E551" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F551" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G551" s="8">
         <v>2014</v>
@@ -15451,10 +15451,10 @@
         <v>82</v>
       </c>
       <c r="E552" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F552" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G552" s="8">
         <v>2015</v>
@@ -15477,10 +15477,10 @@
         <v>82</v>
       </c>
       <c r="E553" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F553" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G553" s="8">
         <v>2016</v>
@@ -15503,10 +15503,10 @@
         <v>82</v>
       </c>
       <c r="E554" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F554" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G554" s="8">
         <v>2017</v>
@@ -15532,10 +15532,10 @@
         <v>82</v>
       </c>
       <c r="E555" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F555" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G555" s="8">
         <v>2018</v>
@@ -15561,10 +15561,10 @@
         <v>82</v>
       </c>
       <c r="E556" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F556" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G556" s="8">
         <v>2019</v>
@@ -15845,7 +15845,7 @@
       <c r="D570" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E570" s="6"/>
+      <c r="F570" s="6"/>
       <c r="I570" s="2" t="s">
         <v>188</v>
       </c>
@@ -15860,7 +15860,7 @@
       <c r="D571" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E571" s="6"/>
+      <c r="F571" s="6"/>
       <c r="I571" s="2" t="s">
         <v>188</v>
       </c>
@@ -15948,10 +15948,10 @@
         <v>101</v>
       </c>
       <c r="E575" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G575" s="8">
         <v>2001</v>
@@ -15977,10 +15977,10 @@
         <v>101</v>
       </c>
       <c r="E576" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G576" s="8">
         <v>2002</v>
@@ -16003,10 +16003,10 @@
         <v>101</v>
       </c>
       <c r="E577" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F577" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G577" s="8">
         <v>2003</v>
@@ -16029,10 +16029,10 @@
         <v>101</v>
       </c>
       <c r="E578" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G578" s="8">
         <v>2004</v>
@@ -16055,10 +16055,10 @@
         <v>101</v>
       </c>
       <c r="E579" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G579" s="8">
         <v>2005</v>
@@ -16081,10 +16081,10 @@
         <v>101</v>
       </c>
       <c r="E580" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F580" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G580" s="8">
         <v>2006</v>
@@ -16107,10 +16107,10 @@
         <v>101</v>
       </c>
       <c r="E581" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G581" s="8">
         <v>2007</v>
@@ -16133,10 +16133,10 @@
         <v>101</v>
       </c>
       <c r="E582" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G582" s="8">
         <v>2008</v>
@@ -16159,10 +16159,10 @@
         <v>101</v>
       </c>
       <c r="E583" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F583" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G583" s="8">
         <v>2009</v>
@@ -16185,10 +16185,10 @@
         <v>101</v>
       </c>
       <c r="E584" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G584" s="8">
         <v>2010</v>
@@ -16211,10 +16211,10 @@
         <v>101</v>
       </c>
       <c r="E585" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G585" s="8">
         <v>2011</v>
@@ -16237,10 +16237,10 @@
         <v>101</v>
       </c>
       <c r="E586" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F586" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G586" s="8">
         <v>2012</v>
@@ -16266,10 +16266,10 @@
         <v>101</v>
       </c>
       <c r="E587" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G587" s="8">
         <v>2013</v>
@@ -16292,10 +16292,10 @@
         <v>71</v>
       </c>
       <c r="E588" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F588" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G588" s="8">
         <v>1999</v>
@@ -16321,10 +16321,10 @@
         <v>71</v>
       </c>
       <c r="E589" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F589" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G589" s="8">
         <v>2000</v>
@@ -16347,10 +16347,10 @@
         <v>71</v>
       </c>
       <c r="E590" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F590" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G590" s="8">
         <v>2001</v>
@@ -16373,10 +16373,10 @@
         <v>71</v>
       </c>
       <c r="E591" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F591" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G591" s="8">
         <v>2002</v>
@@ -16399,10 +16399,10 @@
         <v>71</v>
       </c>
       <c r="E592" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F592" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G592" s="8">
         <v>2003</v>
@@ -16425,10 +16425,10 @@
         <v>71</v>
       </c>
       <c r="E593" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F593" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G593" s="8">
         <v>2004</v>
@@ -16451,10 +16451,10 @@
         <v>71</v>
       </c>
       <c r="E594" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F594" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G594" s="8">
         <v>2005</v>
@@ -16477,10 +16477,10 @@
         <v>71</v>
       </c>
       <c r="E595" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F595" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G595" s="8">
         <v>2006</v>
@@ -16503,10 +16503,10 @@
         <v>71</v>
       </c>
       <c r="E596" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F596" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G596" s="8">
         <v>2007</v>
@@ -16529,10 +16529,10 @@
         <v>71</v>
       </c>
       <c r="E597" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F597" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G597" s="8">
         <v>2008</v>
@@ -16555,10 +16555,10 @@
         <v>71</v>
       </c>
       <c r="E598" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F598" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G598" s="8">
         <v>2009</v>
@@ -16581,10 +16581,10 @@
         <v>71</v>
       </c>
       <c r="E599" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F599" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G599" s="8">
         <v>2010</v>
@@ -16607,10 +16607,10 @@
         <v>71</v>
       </c>
       <c r="E600" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F600" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G600" s="8">
         <v>2011</v>
@@ -16633,10 +16633,10 @@
         <v>71</v>
       </c>
       <c r="E601" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F601" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G601" s="8">
         <v>2012</v>
@@ -16685,10 +16685,10 @@
         <v>58</v>
       </c>
       <c r="E603" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F603" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G603" s="6">
         <v>1998</v>
@@ -16714,10 +16714,10 @@
         <v>58</v>
       </c>
       <c r="E604" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G604" s="8">
         <v>1999</v>
@@ -16741,10 +16741,10 @@
         <v>58</v>
       </c>
       <c r="E605" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G605" s="8">
         <v>2000</v>
@@ -16767,10 +16767,10 @@
         <v>58</v>
       </c>
       <c r="E606" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G606" s="8">
         <v>2001</v>
@@ -16793,10 +16793,10 @@
         <v>58</v>
       </c>
       <c r="E607" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F607" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G607" s="8">
         <v>2002</v>
@@ -16819,10 +16819,10 @@
         <v>58</v>
       </c>
       <c r="E608" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F608" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G608" s="8">
         <v>2003</v>
@@ -16845,10 +16845,10 @@
         <v>58</v>
       </c>
       <c r="E609" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G609" s="8">
         <v>2004</v>
@@ -16871,10 +16871,10 @@
         <v>58</v>
       </c>
       <c r="E610" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G610" s="8">
         <v>2005</v>
@@ -16897,10 +16897,10 @@
         <v>58</v>
       </c>
       <c r="E611" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F611" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G611" s="8">
         <v>2006</v>
@@ -16923,10 +16923,10 @@
         <v>58</v>
       </c>
       <c r="E612" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F612" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G612" s="8">
         <v>2007</v>
@@ -16949,10 +16949,10 @@
         <v>58</v>
       </c>
       <c r="E613" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F613" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G613" s="8">
         <v>2008</v>
@@ -16975,10 +16975,10 @@
         <v>58</v>
       </c>
       <c r="E614" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F614" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G614" s="8">
         <v>2009</v>
@@ -17001,10 +17001,10 @@
         <v>58</v>
       </c>
       <c r="E615" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F615" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G615" s="8">
         <v>2010</v>
@@ -17030,10 +17030,10 @@
         <v>58</v>
       </c>
       <c r="E616" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F616" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G616" s="8">
         <v>2011</v>
@@ -17056,10 +17056,10 @@
         <v>58</v>
       </c>
       <c r="E617" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F617" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G617" s="8">
         <v>2012</v>
@@ -17082,10 +17082,10 @@
         <v>58</v>
       </c>
       <c r="E618" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F618" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G618" s="8">
         <v>2013</v>
@@ -17108,10 +17108,10 @@
         <v>58</v>
       </c>
       <c r="E619" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F619" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G619" s="8">
         <v>2014</v>
@@ -17134,10 +17134,10 @@
         <v>58</v>
       </c>
       <c r="E620" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F620" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G620" s="8">
         <v>2015</v>
@@ -17160,10 +17160,10 @@
         <v>58</v>
       </c>
       <c r="E621" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F621" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G621" s="8">
         <v>2016</v>
@@ -17186,10 +17186,10 @@
         <v>58</v>
       </c>
       <c r="E622" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G622" s="8">
         <v>2017</v>
@@ -17212,10 +17212,10 @@
         <v>58</v>
       </c>
       <c r="E623" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F623" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G623" s="8">
         <v>1998</v>
@@ -17241,10 +17241,10 @@
         <v>58</v>
       </c>
       <c r="E624" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G624" s="8">
         <v>1999</v>
@@ -17268,10 +17268,10 @@
         <v>58</v>
       </c>
       <c r="E625" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F625" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G625" s="8">
         <v>2000</v>
@@ -17294,10 +17294,10 @@
         <v>58</v>
       </c>
       <c r="E626" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F626" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G626" s="8">
         <v>2001</v>
@@ -17320,10 +17320,10 @@
         <v>58</v>
       </c>
       <c r="E627" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F627" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G627" s="8">
         <v>2002</v>
@@ -17346,10 +17346,10 @@
         <v>58</v>
       </c>
       <c r="E628" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F628" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G628" s="8">
         <v>2003</v>
@@ -17372,10 +17372,10 @@
         <v>58</v>
       </c>
       <c r="E629" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F629" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G629" s="8">
         <v>2004</v>
@@ -17398,10 +17398,10 @@
         <v>58</v>
       </c>
       <c r="E630" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F630" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G630" s="8">
         <v>2005</v>
@@ -17424,10 +17424,10 @@
         <v>58</v>
       </c>
       <c r="E631" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F631" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G631" s="8">
         <v>2006</v>
@@ -17450,10 +17450,10 @@
         <v>58</v>
       </c>
       <c r="E632" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F632" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G632" s="8">
         <v>2007</v>
@@ -17476,10 +17476,10 @@
         <v>58</v>
       </c>
       <c r="E633" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F633" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G633" s="8">
         <v>2008</v>
@@ -17502,10 +17502,10 @@
         <v>58</v>
       </c>
       <c r="E634" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G634" s="8">
         <v>2009</v>
@@ -17528,10 +17528,10 @@
         <v>58</v>
       </c>
       <c r="E635" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F635" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G635" s="8">
         <v>2010</v>
@@ -17557,10 +17557,10 @@
         <v>58</v>
       </c>
       <c r="E636" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F636" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G636" s="8">
         <v>2011</v>
@@ -17583,10 +17583,10 @@
         <v>58</v>
       </c>
       <c r="E637" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F637" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G637" s="8">
         <v>2012</v>
@@ -17609,10 +17609,10 @@
         <v>58</v>
       </c>
       <c r="E638" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F638" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G638" s="8">
         <v>2013</v>
@@ -17635,10 +17635,10 @@
         <v>58</v>
       </c>
       <c r="E639" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F639" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G639" s="8">
         <v>2014</v>
@@ -18446,6 +18446,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056A396E11C201049A295728E554B4204" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5308e23870a69a858a1f647203e717c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e" xmlns:ns3="61093040-1240-489f-8ca6-d5903aeb7a38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f096f016f089f4e04afada0be9633fb" ns2:_="" ns3:_="">
     <xsd:import namespace="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e"/>
@@ -18642,22 +18657,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E9542D-92F9-4D1A-958F-4A450E98A82B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="61093040-1240-489f-8ca6-d5903aeb7a38"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596E4C84-42D4-4598-BDCF-3CCDF8B9CA62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{538184D0-EAB6-4E2D-9B7C-E6F8B2B1B871}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18674,29 +18699,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596E4C84-42D4-4598-BDCF-3CCDF8B9CA62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E9542D-92F9-4D1A-958F-4A450E98A82B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="61093040-1240-489f-8ca6-d5903aeb7a38"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/USFWS_bull_trout_SSA_data_OR.xlsx
+++ b/data/USFWS_bull_trout_SSA_data_OR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scheuerl/Documents/GitHub/bulltrout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEAAEE0-FBE8-7647-8B82-4B36E4BD094F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DBF4F1-64EB-1F49-8191-ECFBB11DC7DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="8640" windowWidth="23040" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="1840" windowWidth="26740" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oregon Data" sheetId="1" r:id="rId1"/>
@@ -1102,9 +1102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I647"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A481" sqref="A481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13574,9 +13574,6 @@
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A481" s="14">
-        <v>21</v>
-      </c>
       <c r="B481" s="2" t="s">
         <v>32</v>
       </c>
@@ -18446,21 +18443,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056A396E11C201049A295728E554B4204" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5308e23870a69a858a1f647203e717c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e" xmlns:ns3="61093040-1240-489f-8ca6-d5903aeb7a38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f096f016f089f4e04afada0be9633fb" ns2:_="" ns3:_="">
     <xsd:import namespace="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e"/>
@@ -18657,32 +18639,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E9542D-92F9-4D1A-958F-4A450E98A82B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="61093040-1240-489f-8ca6-d5903aeb7a38"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596E4C84-42D4-4598-BDCF-3CCDF8B9CA62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{538184D0-EAB6-4E2D-9B7C-E6F8B2B1B871}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18699,4 +18671,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596E4C84-42D4-4598-BDCF-3CCDF8B9CA62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E9542D-92F9-4D1A-958F-4A450E98A82B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="61093040-1240-489f-8ca6-d5903aeb7a38"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dbfd3e1b-9f3f-4f6f-b75c-e8eed26c7c7e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>